--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$68</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="502">
   <si>
     <t>Path</t>
   </si>
@@ -956,6 +956,140 @@
   </si>
   <si>
     <t>363714003 |Interprets|</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.value[x].id</t>
+  </si>
+  <si>
+    <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x].value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">decimal
+</t>
+  </si>
+  <si>
+    <t>Numerical value (with implicit precision)</t>
+  </si>
+  <si>
+    <t>The value of the measured amount. The value includes an implicit precision in the presentation of the value.</t>
+  </si>
+  <si>
+    <t>The implicit precision in the value should always be honored. Monetary values have their own rules for handling precision (refer to standard accounting text books).</t>
+  </si>
+  <si>
+    <t>Precision is handled implicitly in almost all cases of measurement.</t>
+  </si>
+  <si>
+    <t>Quantity.value</t>
+  </si>
+  <si>
+    <t>SN.2  / CQ - N/A</t>
+  </si>
+  <si>
+    <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
+  </si>
+  <si>
+    <t>Observation.value[x].comparator</t>
+  </si>
+  <si>
+    <t>&lt; | &lt;= | &gt;= | &gt; - how to understand the value</t>
+  </si>
+  <si>
+    <t>How the value should be understood and represented - whether the actual value is greater or less than the stated value due to measurement issues; e.g. if the comparator is "&lt;" , then the real value is &lt; stated value.</t>
+  </si>
+  <si>
+    <t>Need a framework for handling measures where the value is &lt;5ug/L or &gt;400mg/L due to the limitations of measuring methodology.</t>
+  </si>
+  <si>
+    <t>If there is no comparator, then there is no modification of the value</t>
+  </si>
+  <si>
+    <t>How the Quantity should be understood and represented.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/quantity-comparator|4.0.1</t>
+  </si>
+  <si>
+    <t>Quantity.comparator</t>
+  </si>
+  <si>
+    <t>SN.1  / CQ.1</t>
+  </si>
+  <si>
+    <t>IVL properties</t>
+  </si>
+  <si>
+    <t>Observation.value[x].unit</t>
+  </si>
+  <si>
+    <t>Unit representation</t>
+  </si>
+  <si>
+    <t>A human-readable form of the unit.</t>
+  </si>
+  <si>
+    <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
+  </si>
+  <si>
+    <t>https://johnmoehrke.github.io/MHV-PGHD/ValueSet/mhv-body-weights</t>
+  </si>
+  <si>
+    <t>Quantity.unit</t>
+  </si>
+  <si>
+    <t>(see OBX.6 etc.) / CQ.2</t>
+  </si>
+  <si>
+    <t>PQ.unit</t>
+  </si>
+  <si>
+    <t>Observation.value[x].system</t>
+  </si>
+  <si>
+    <t>System that defines coded unit form</t>
+  </si>
+  <si>
+    <t>The identification of the system that provides the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>Quantity.system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qty-3
+</t>
+  </si>
+  <si>
+    <t>CO.codeSystem, PQ.translation.codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.value[x].code</t>
+  </si>
+  <si>
+    <t>Coded form of the unit</t>
+  </si>
+  <si>
+    <t>A computer processable form of the unit in some unit representation system.</t>
+  </si>
+  <si>
+    <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
+  </si>
+  <si>
+    <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Quantity.code</t>
+  </si>
+  <si>
+    <t>PQ.code, MO.currency, PQ.translation.code</t>
   </si>
   <si>
     <t>Observation.dataAbsentReason</t>
@@ -1612,7 +1746,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO60"/>
+  <dimension ref="A1:AO68"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1645,7 +1779,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="50.89453125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="66.0703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
@@ -5379,16 +5513,14 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>286</v>
@@ -5426,9 +5558,11 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5437,7 +5571,7 @@
         <v>43</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>45</v>
@@ -5446,22 +5580,22 @@
         <v>45</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5486,13 +5620,13 @@
         <v>45</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>45</v>
@@ -5510,7 +5644,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5519,7 +5653,7 @@
         <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>67</v>
@@ -5528,35 +5662,35 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>45</v>
+        <v>293</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>155</v>
+        <v>294</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>45</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>45</v>
@@ -5568,20 +5702,16 @@
         <v>45</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>204</v>
+        <v>57</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>69</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5605,13 +5735,13 @@
         <v>45</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>45</v>
@@ -5629,53 +5759,53 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>306</v>
+        <v>71</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>316</v>
+        <v>72</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>318</v>
+        <v>299</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5687,20 +5817,18 @@
         <v>45</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>319</v>
+        <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5736,19 +5864,19 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>318</v>
+        <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
@@ -5760,7 +5888,7 @@
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5769,10 +5897,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>324</v>
+        <v>45</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>325</v>
+        <v>72</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5783,7 +5911,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>326</v>
+        <v>300</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5794,7 +5922,7 @@
         <v>43</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>45</v>
@@ -5803,21 +5931,23 @@
         <v>45</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>327</v>
+        <v>302</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>328</v>
+        <v>303</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="N36" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
       </c>
@@ -5841,13 +5971,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>330</v>
+        <v>45</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>331</v>
+        <v>45</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5865,7 +5995,7 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>326</v>
+        <v>306</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>43</v>
@@ -5883,24 +6013,24 @@
         <v>45</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>333</v>
+        <v>307</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>334</v>
+        <v>308</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>335</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5911,36 +6041,36 @@
         <v>43</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>204</v>
+        <v>132</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M37" s="2"/>
       <c r="N37" t="s" s="2">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>313</v>
+      </c>
       <c r="Q37" t="s" s="2">
         <v>45</v>
       </c>
@@ -5960,13 +6090,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>122</v>
+        <v>195</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -5984,7 +6114,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6005,10 +6135,10 @@
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>344</v>
+        <v>318</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>45</v>
@@ -6019,7 +6149,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>345</v>
+        <v>319</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6030,7 +6160,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6039,21 +6169,21 @@
         <v>45</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>346</v>
+        <v>57</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>321</v>
+      </c>
+      <c r="M38" s="2"/>
+      <c r="N38" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6077,13 +6207,11 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X38" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X38" s="2"/>
       <c r="Y38" t="s" s="2">
-        <v>45</v>
+        <v>323</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6101,7 +6229,7 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>345</v>
+        <v>324</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
@@ -6119,24 +6247,24 @@
         <v>45</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>350</v>
+        <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>351</v>
+        <v>325</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>352</v>
+        <v>326</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>353</v>
+        <v>45</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6147,7 +6275,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6156,21 +6284,21 @@
         <v>45</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>355</v>
+        <v>97</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>356</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>329</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>330</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
       </c>
@@ -6218,7 +6346,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6227,7 +6355,7 @@
         <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>67</v>
@@ -6236,24 +6364,24 @@
         <v>45</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>359</v>
+        <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>360</v>
+        <v>325</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>361</v>
+        <v>333</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>362</v>
+        <v>45</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6264,7 +6392,7 @@
         <v>43</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>45</v>
@@ -6273,22 +6401,22 @@
         <v>45</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>364</v>
+        <v>132</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>365</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>366</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>368</v>
+        <v>338</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6337,19 +6465,19 @@
         <v>45</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>363</v>
+        <v>339</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>369</v>
+        <v>67</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>45</v>
@@ -6358,10 +6486,10 @@
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>370</v>
+        <v>325</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>45</v>
@@ -6372,7 +6500,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6383,7 +6511,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>45</v>
@@ -6395,16 +6523,20 @@
         <v>45</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>57</v>
+        <v>204</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>69</v>
+        <v>342</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
       </c>
@@ -6428,13 +6560,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>45</v>
+        <v>346</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6452,7 +6584,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>71</v>
+        <v>341</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6461,10 +6593,10 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>45</v>
+        <v>348</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>45</v>
@@ -6473,10 +6605,10 @@
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>72</v>
+        <v>349</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>45</v>
@@ -6487,18 +6619,18 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>74</v>
+        <v>351</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>45</v>
@@ -6510,18 +6642,20 @@
         <v>45</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>76</v>
+        <v>352</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>77</v>
+        <v>353</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6545,13 +6679,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>45</v>
+        <v>356</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6569,7 +6703,7 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
@@ -6581,65 +6715,65 @@
         <v>45</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>45</v>
+        <v>358</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>45</v>
+        <v>359</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>45</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>75</v>
+        <v>363</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>376</v>
+        <v>364</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>78</v>
+        <v>366</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6688,7 +6822,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6700,7 +6834,7 @@
         <v>45</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>45</v>
@@ -6709,10 +6843,10 @@
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>45</v>
+        <v>368</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>155</v>
+        <v>369</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>45</v>
@@ -6723,7 +6857,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6734,7 +6868,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>45</v>
@@ -6746,15 +6880,17 @@
         <v>45</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>381</v>
+        <v>204</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>372</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>45</v>
@@ -6779,13 +6915,13 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>45</v>
+        <v>374</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
@@ -6803,7 +6939,7 @@
         <v>45</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6812,7 +6948,7 @@
         <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>67</v>
@@ -6821,24 +6957,24 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>45</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6849,7 +6985,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>45</v>
@@ -6861,16 +6997,20 @@
         <v>45</v>
       </c>
       <c r="J45" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K45" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="K45" t="s" s="2">
-        <v>388</v>
-      </c>
       <c r="L45" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6894,13 +7034,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>45</v>
+        <v>385</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -6918,7 +7058,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -6927,7 +7067,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>384</v>
+        <v>45</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -6939,10 +7079,10 @@
         <v>45</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
@@ -6953,7 +7093,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6964,7 +7104,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -6976,20 +7116,18 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>204</v>
+        <v>390</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>395</v>
-      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
       </c>
@@ -7013,13 +7151,13 @@
         <v>45</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>136</v>
+        <v>45</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>396</v>
+        <v>45</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>45</v>
@@ -7037,7 +7175,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7055,24 +7193,24 @@
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>316</v>
+        <v>396</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>45</v>
+        <v>397</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7083,7 +7221,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -7095,20 +7233,18 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>204</v>
+        <v>399</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="M47" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>404</v>
-      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>45</v>
       </c>
@@ -7132,13 +7268,13 @@
         <v>45</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>405</v>
+        <v>45</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>45</v>
@@ -7156,13 +7292,13 @@
         <v>45</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
@@ -7174,19 +7310,19 @@
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>316</v>
+        <v>405</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>45</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" hidden="true">
@@ -7202,7 +7338,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7222,9 +7358,11 @@
       <c r="L48" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" t="s" s="2">
+        <v>411</v>
+      </c>
       <c r="N48" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7279,13 +7417,13 @@
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>67</v>
+        <v>413</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7294,10 +7432,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>45</v>
+        <v>414</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7308,7 +7446,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7334,10 +7472,10 @@
         <v>57</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>414</v>
+        <v>69</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>415</v>
+        <v>70</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7388,7 +7526,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>413</v>
+        <v>71</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7400,7 +7538,7 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7409,10 +7547,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>416</v>
+        <v>72</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7427,14 +7565,14 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7443,19 +7581,19 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>418</v>
+        <v>75</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>419</v>
+        <v>76</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>421</v>
+        <v>78</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -7505,7 +7643,7 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
@@ -7517,7 +7655,7 @@
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7526,10 +7664,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>422</v>
+        <v>45</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>423</v>
+        <v>72</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7540,41 +7678,43 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>45</v>
+        <v>419</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>425</v>
+        <v>75</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
       </c>
@@ -7622,7 +7762,7 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
@@ -7634,7 +7774,7 @@
         <v>45</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7643,10 +7783,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>422</v>
+        <v>45</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>429</v>
+        <v>155</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7657,7 +7797,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7668,7 +7808,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>45</v>
@@ -7677,23 +7817,19 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>427</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7741,16 +7877,16 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7762,10 +7898,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7776,7 +7912,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7799,13 +7935,13 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>57</v>
+        <v>425</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>69</v>
+        <v>432</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>70</v>
+        <v>433</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7856,7 +7992,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>71</v>
+        <v>431</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -7865,10 +8001,10 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ53" t="s" s="2">
         <v>45</v>
@@ -7877,10 +8013,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>45</v>
+        <v>429</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>72</v>
+        <v>434</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -7891,18 +8027,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -7914,18 +8050,20 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>77</v>
+        <v>437</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>438</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>439</v>
+      </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
       </c>
@@ -7949,13 +8087,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>45</v>
+        <v>441</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -7973,31 +8111,31 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>82</v>
+        <v>435</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>72</v>
+        <v>360</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
@@ -8008,11 +8146,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8025,25 +8163,25 @@
         <v>45</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>75</v>
+        <v>204</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>376</v>
+        <v>445</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>377</v>
+        <v>446</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>78</v>
+        <v>447</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>378</v>
+        <v>448</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8068,13 +8206,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>45</v>
+        <v>449</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8092,7 +8230,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8104,19 +8242,19 @@
         <v>45</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>45</v>
+        <v>442</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>45</v>
+        <v>443</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>155</v>
+        <v>360</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8127,7 +8265,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8135,7 +8273,7 @@
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>55</v>
@@ -8147,22 +8285,20 @@
         <v>45</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>204</v>
+        <v>452</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" t="s" s="2">
-        <v>219</v>
+        <v>455</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>45</v>
@@ -8187,13 +8323,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8211,10 +8347,10 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>440</v>
+        <v>451</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>55</v>
@@ -8229,16 +8365,16 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>444</v>
+        <v>45</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>226</v>
+        <v>456</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>45</v>
@@ -8246,7 +8382,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8266,23 +8402,19 @@
         <v>45</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>446</v>
+        <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>447</v>
+        <v>458</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8330,7 +8462,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>445</v>
+        <v>457</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8348,24 +8480,24 @@
         <v>45</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>294</v>
+        <v>429</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>295</v>
+        <v>460</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO57" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8376,7 +8508,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>45</v>
@@ -8385,23 +8517,21 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>204</v>
+        <v>462</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>452</v>
+        <v>464</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>453</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>45</v>
       </c>
@@ -8425,13 +8555,13 @@
         <v>45</v>
       </c>
       <c r="W58" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>302</v>
+        <v>45</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>303</v>
+        <v>45</v>
       </c>
       <c r="Z58" t="s" s="2">
         <v>45</v>
@@ -8449,16 +8579,16 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>304</v>
+        <v>45</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>67</v>
@@ -8470,10 +8600,10 @@
         <v>45</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>155</v>
+        <v>466</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>305</v>
+        <v>467</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
@@ -8484,18 +8614,18 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>307</v>
+        <v>45</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>45</v>
@@ -8504,23 +8634,21 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>204</v>
+        <v>469</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>308</v>
+        <v>470</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>309</v>
+        <v>471</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>472</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>45</v>
       </c>
@@ -8544,13 +8672,13 @@
         <v>45</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>312</v>
+        <v>45</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>313</v>
+        <v>45</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>45</v>
@@ -8568,7 +8696,7 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>454</v>
+        <v>468</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
@@ -8586,24 +8714,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>315</v>
+        <v>466</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>316</v>
+        <v>473</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>317</v>
+        <v>45</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8614,7 +8742,7 @@
         <v>43</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>45</v>
@@ -8623,22 +8751,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>456</v>
+        <v>475</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>457</v>
+        <v>476</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>367</v>
+        <v>477</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>368</v>
+        <v>478</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8687,7 +8815,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>455</v>
+        <v>474</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8708,20 +8836,966 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>370</v>
+        <v>479</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>371</v>
+        <v>480</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO60" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="65" hidden="true">
+      <c r="A65" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P65" s="2"/>
+      <c r="Q65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="66" hidden="true">
+      <c r="A66" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="B66" s="2"/>
+      <c r="C66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P66" s="2"/>
+      <c r="Q66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="67" hidden="true">
+      <c r="A67" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="B67" s="2"/>
+      <c r="C67" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P67" s="2"/>
+      <c r="Q67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="B68" s="2"/>
+      <c r="C68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P68" s="2"/>
+      <c r="Q68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO60">
+  <autoFilter ref="A1:AO68">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8731,7 +9805,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI59">
+  <conditionalFormatting sqref="A2:AI67">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -675,7 +675,6 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
     &lt;code value="vital-signs"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -675,6 +675,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
     &lt;code value="vital-signs"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$68</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AO$80</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2536" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2982" uniqueCount="569">
   <si>
     <t>Path</t>
   </si>
@@ -156,17 +156,17 @@
     <t/>
   </si>
   <si>
-    <t>Measurements and simple assertions</t>
-  </si>
-  <si>
-    <t>Measurements and simple assertions made about a patient, device or other subject.</t>
+    <t>FHIR Vital Signs Profile</t>
+  </si>
+  <si>
+    <t>The FHIR Vitals Signs profile sets minimum expectations for the Observation Resource to record, search and fetch the vital signs associated with a patient.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -600,7 +600,7 @@
     <t>A larger event of which this particular Observation is a component or step.  For example,  an observation as part of a procedure.</t>
   </si>
   <si>
-    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
+    <t>To link an Observation to an Encounter use `encounter`.  See the  [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below for guidance on referencing another Observation.</t>
   </si>
   <si>
     <t>Event.partOf</t>
@@ -631,9 +631,6 @@
   </si>
   <si>
     <t>required</t>
-  </si>
-  <si>
-    <t>Codes providing the status of an observation.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-status|4.0.1</t>
@@ -673,24 +670,204 @@
     <t>Used for filtering what observations are retrieved and displayed.</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://terminology.hl7.org/CodeSystem/observation-category"/&gt;
-    &lt;code value="vital-signs"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
+    <t>value:coding.code}
+value:coding.system}</t>
+  </si>
+  <si>
     <t>.outboundRelationship[typeCode="COMP].target[classCode="LIST", moodCode="EVN"].code</t>
   </si>
   <si>
     <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>VSCat</t>
+  </si>
+  <si>
+    <t>Observation.category.id</t>
+  </si>
+  <si>
+    <t>Observation.category.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/observation-category</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>vital-signs</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Observation.category.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Observation.category.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -700,16 +877,16 @@
 </t>
   </si>
   <si>
-    <t>Type of observation (code / type)</t>
-  </si>
-  <si>
-    <t>Describes what was observed. Sometimes this is called the observation "name".</t>
+    <t>Coded Responses from C-CDA Vital Sign Results</t>
+  </si>
+  <si>
+    <t>Coded Responses from C-CDA Vital Sign Results.</t>
   </si>
   <si>
     <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
   </si>
   <si>
-    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
+    <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -720,10 +897,10 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>Codes identifying names of simple observations.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>This identifies the vital sign result type.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-vitalsignresult</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -788,7 +965,7 @@
     <t>The actual focus of an observation when it is not the patient of record representing something or someone associated with the patient such as a spouse, parent, fetus, or donor. For example, fetus observations in a mother's record.  The focus of an observation could also be an existing condition,  an intervention, the subject's diet,  another observation of the subject,  or a body structure such as tumor or implanted device.   An example use case would be using the Observation resource to capture whether the mother is trained to change her child's tracheostomy tube. In this example, the child is the patient of record and the mother is the focus.</t>
   </si>
   <si>
-    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/R4/extension-observation-focuscode.html).</t>
+    <t>Typically, an observation is made about the subject - a patient, or group of patients, location, or device - and the distinction between the subject and what is directly measured for an observation is specified in the observation code itself ( e.g., "Blood Glucose") and does not need to be represented separately using this element.  Use `specimen` if a reference to a specimen is required.  If a code is required instead of a resource use either  `bodysite` for bodysites or the standard extension [focusCode](http://hl7.org/fhir/extension-observation-focuscode.html).</t>
   </si>
   <si>
     <t>participation[typeCode=SBJ]</t>
@@ -840,13 +1017,13 @@
 </t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for observation</t>
-  </si>
-  <si>
-    <t>The time or time-period the observed value is asserted as being true. For biological subjects - e.g. human patients - this is usually called the "physiologically relevant time". This is usually either the time of the procedure or of specimen collection, but very often the source of the date/time is not known, only the date/time itself.</t>
-  </si>
-  <si>
-    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/R4/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
+    <t>Often just a dateTime for Vital Signs</t>
+  </si>
+  <si>
+    <t>Often just a dateTime for Vital Signs.</t>
+  </si>
+  <si>
+    <t>At least a date should be present unless this observation is a historical report.  For recording imprecise or "fuzzy" times (For example, a blood glucose measurement taken "after breakfast") use the [Timing](http://hl7.org/fhir/datatypes.html#timing) datatype which allow the measurement to be tied to regular life events.</t>
   </si>
   <si>
     <t>Knowing when an observation was deemed true is important to its relevance as well as determining trends.</t>
@@ -859,6 +1036,14 @@
     <t>closed</t>
   </si>
   <si>
+    <t xml:space="preserve">vs-1
+</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+  </si>
+  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -883,7 +1068,7 @@
     <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
   </si>
   <si>
-    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
+    <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
     <t>OBR.22 (or MSH.7), or perhaps OBX-19 (depends on who observation made)</t>
@@ -930,20 +1115,17 @@
 </t>
   </si>
   <si>
-    <t>Actual result</t>
-  </si>
-  <si>
-    <t>The information determined as a result of making the observation, if the information has a simple value.</t>
-  </si>
-  <si>
-    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
-  </si>
-  <si>
-    <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">obs-7
-</t>
+    <t>Vital Signs value are recorded using the Quantity data type. For supporting observations such as Cuff size could use other datatypes such as CodeableConcept.</t>
+  </si>
+  <si>
+    <t>An observation may have; 1)  a single value here, 2)  both a value and a set of related or component values,  or 3)  only a set of related or component values. If a value is present, the datatype for this element should be determined by Observation.code.  A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>9. SHALL contain exactly one [1..1] value with @xsi:type="PQ" (CONF:7305).</t>
+  </si>
+  <si>
+    <t>obs-7
+vs-2</t>
   </si>
   <si>
     <t>&lt; 441742003 |Evaluation finding|</t>
@@ -1114,8 +1296,8 @@
     <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
-    <t xml:space="preserve">obs-6
-</t>
+    <t>obs-6
+vs-2</t>
   </si>
   <si>
     <t>value.nullFlavor</t>
@@ -1193,7 +1375,7 @@
   </si>
   <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
-If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
+If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/extension-bodysite.html).</t>
   </si>
   <si>
     <t>Codes describing anatomical locations. May include laterality.</t>
@@ -1346,7 +1528,7 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/extensibility.html#modifierExtension).</t>
   </si>
   <si>
     <t>BackboneElement.modifierExtension</t>
@@ -1475,17 +1657,17 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
+    <t xml:space="preserve">Reference(QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
-    <t>Related resource that belongs to the Observation group</t>
-  </si>
-  <si>
-    <t>This observation is a group observation (e.g. a battery, a panel of tests, a set of vital sign measurements) that includes the target as a member of the group.</t>
-  </si>
-  <si>
-    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/R4/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
+    <t>Used when reporting vital signs panel components</t>
+  </si>
+  <si>
+    <t>Used when reporting vital signs panel components.</t>
+  </si>
+  <si>
+    <t>When using this element, an observation will typically have either a value or a set of related resources, although both may be present in some cases.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.  Note that a system may calculate results from [QuestionnaireResponse](http://hl7.org/fhir/questionnaireresponse.html)  into a final score and represent the score as an Observation.</t>
   </si>
   <si>
     <t>Relationships established by OBX-4 usage</t>
@@ -1497,7 +1679,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|MolecularSequence|vitalsigns)
 </t>
   </si>
   <si>
@@ -1507,7 +1689,7 @@
     <t>The target resource that represents a measurement from which this observation value is derived. For example, a calculated anion gap or a fetal measurement based on an ultrasound image.</t>
   </si>
   <si>
-    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/R4/observation.html#obsgrouping) below.</t>
+    <t>All the reference choices that are listed in this element can represent clinical observations and other measurements that may be the source for a derived value.  The most common reference will be another Observation.  For a discussion on the ways Observations can assembled in groups together, see [Notes](http://hl7.org/fhir/observation.html#obsgrouping) below.</t>
   </si>
   <si>
     <t>.targetObservation</t>
@@ -1516,18 +1698,19 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
-  </si>
-  <si>
-    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Used when reporting systolic and diastolic blood pressure.</t>
+  </si>
+  <si>
+    <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/observation.html#notes) below.</t>
   </si>
   <si>
     <t>Component observations share the same attributes in the Observation resource as the primary observation and are always treated a part of a single observation (they are not separable).   However, the reference range for the primary observation value is not inherited by the component values and is required when appropriate for each component observation.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+vs-3:If there is no a value a data absent reason must be present {value.exists() or dataAbsentReason.exists()}</t>
+  </si>
+  <si>
     <t>containment by OBX-4?</t>
   </si>
   <si>
@@ -1553,6 +1736,9 @@
   </si>
   <si>
     <t>*All* code-value and  component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+  </si>
+  <si>
+    <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1566,10 +1752,23 @@
 CodeableConceptstringbooleanintegerRangeRatioSampledDatatimedateTimePeriod</t>
   </si>
   <si>
-    <t>Actual component result</t>
-  </si>
-  <si>
-    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
+    <t>Vital Sign Value recorded with UCUM</t>
+  </si>
+  <si>
+    <t>Vital Sign Value recorded with UCUM.</t>
+  </si>
+  <si>
+    <t>Used when observation has a set of component observations. An observation may have both a value (e.g. an  Apgar score)  and component observations (the observations from which the Apgar score was derived). If a value is present, the datatype for this element should be determined by Observation.code. A CodeableConcept with just a text would be used instead of a string if the field was usually coded, or if the type associated with the Observation.code defines a coded value.  For additional guidance, see the [Notes section](http://hl7.org/fhir/observation.html#notes) below.</t>
+  </si>
+  <si>
+    <t>Common UCUM units for recording Vital Signs.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ucum-vitals-common|4.0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vs-3
+</t>
   </si>
   <si>
     <t>363714003 |Interprets| &lt; 441742003 |Evaluation finding|</t>
@@ -1586,6 +1785,10 @@
   <si>
     <t>"Null" or exceptional values can be represented two ways in FHIR Observations.  One way is to simply include them in the value set and represent the exceptions in the value.  For example, measurement values for a serology test could be  "detected", "not detected", "inconclusive", or  "test not done". 
 The alternate way is to use the value element for actual observations and use the explicit dataAbsentReason element to record exceptional values.  For example, the dataAbsentReason code "error" could be used when the measurement was not completed.  Because of these options, use-case agreements are required to interpret general observations for exceptional values.</t>
+  </si>
+  <si>
+    <t>obs-6
+vs-3</t>
   </si>
   <si>
     <t>Observation.component.interpretation</t>
@@ -1746,7 +1949,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AO68"/>
+  <dimension ref="A1:AO80"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1765,7 +1968,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.26953125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="142.2890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1781,7 +1984,7 @@
     <col min="24" max="24" width="95.7734375" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="66.0703125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="19.921875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
@@ -4255,7 +4458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
         <v>189</v>
       </c>
@@ -4271,7 +4474,7 @@
         <v>55</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>56</v>
@@ -4319,11 +4522,9 @@
       <c r="W22" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="X22" t="s" s="2">
+      <c r="X22" s="2"/>
+      <c r="Y22" t="s" s="2">
         <v>196</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>45</v>
@@ -4356,19 +4557,19 @@
         <v>67</v>
       </c>
       <c r="AJ22" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>45</v>
@@ -4376,7 +4577,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4390,7 +4591,7 @@
         <v>55</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>45</v>
@@ -4399,19 +4600,19 @@
         <v>45</v>
       </c>
       <c r="J23" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K23" t="s" s="2">
+      <c r="L23" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="M23" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="O23" t="s" s="2">
         <v>45</v>
@@ -4421,7 +4622,7 @@
         <v>45</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>45</v>
@@ -4439,28 +4640,26 @@
         <v>136</v>
       </c>
       <c r="X23" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA23" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="Y23" t="s" s="2">
-        <v>211</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>45</v>
-      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>43</v>
@@ -4484,22 +4683,24 @@
         <v>45</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AO23" t="s" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" hidden="true">
-      <c r="A24" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>215</v>
+        <v>45</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4509,28 +4710,28 @@
         <v>55</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J24" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="K24" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="L24" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>45</v>
@@ -4540,7 +4741,7 @@
         <v>45</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>220</v>
+        <v>45</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>45</v>
@@ -4555,13 +4756,13 @@
         <v>45</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>45</v>
@@ -4579,13 +4780,13 @@
         <v>45</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>45</v>
@@ -4594,27 +4795,27 @@
         <v>67</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>223</v>
+        <v>45</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>224</v>
+        <v>45</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>228</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4622,7 +4823,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>55</v>
@@ -4634,23 +4835,19 @@
         <v>45</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>230</v>
+        <v>57</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>69</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>45</v>
       </c>
@@ -4698,7 +4895,7 @@
         <v>45</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>43</v>
@@ -4710,22 +4907,22 @@
         <v>45</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>235</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>45</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>45</v>
@@ -4733,18 +4930,18 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>45</v>
@@ -4753,19 +4950,19 @@
         <v>45</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>77</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4803,19 +5000,19 @@
         <v>45</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC26" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>43</v>
@@ -4827,7 +5024,7 @@
         <v>45</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ26" t="s" s="2">
         <v>45</v>
@@ -4836,35 +5033,35 @@
         <v>45</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>244</v>
+        <v>72</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>45</v>
@@ -4873,19 +5070,19 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>247</v>
+        <v>109</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>45</v>
@@ -4934,13 +5131,13 @@
         <v>45</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>45</v>
@@ -4949,19 +5146,19 @@
         <v>67</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>252</v>
+        <v>45</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>255</v>
+        <v>45</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>45</v>
@@ -4969,15 +5166,15 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>257</v>
+        <v>45</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>55</v>
@@ -4989,23 +5186,19 @@
         <v>45</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>258</v>
+        <v>57</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>259</v>
+        <v>69</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>45</v>
       </c>
@@ -5041,17 +5234,19 @@
         <v>45</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>71</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>43</v>
@@ -5063,22 +5258,22 @@
         <v>45</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>45</v>
@@ -5086,20 +5281,18 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>256</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>269</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>257</v>
+        <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>45</v>
@@ -5108,23 +5301,21 @@
         <v>45</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>258</v>
+        <v>75</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>77</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>45</v>
       </c>
@@ -5160,54 +5351,54 @@
         <v>45</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>256</v>
+        <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>265</v>
+        <v>45</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>266</v>
+        <v>45</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>268</v>
+        <v>45</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>270</v>
+        <v>226</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5215,13 +5406,13 @@
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>45</v>
@@ -5230,24 +5421,26 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>272</v>
+        <v>228</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>45</v>
+        <v>231</v>
       </c>
       <c r="R30" t="s" s="2">
         <v>45</v>
@@ -5289,7 +5482,7 @@
         <v>45</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>43</v>
@@ -5310,13 +5503,13 @@
         <v>45</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>274</v>
+        <v>233</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>275</v>
+        <v>234</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>45</v>
@@ -5324,7 +5517,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5335,7 +5528,7 @@
         <v>43</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>45</v>
@@ -5347,18 +5540,18 @@
         <v>56</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>278</v>
+        <v>57</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" t="s" s="2">
-        <v>281</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>45</v>
       </c>
@@ -5406,13 +5599,13 @@
         <v>45</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>45</v>
@@ -5421,27 +5614,27 @@
         <v>67</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>282</v>
+        <v>45</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>283</v>
+        <v>240</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>241</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>45</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>242</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5449,13 +5642,13 @@
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>45</v>
@@ -5464,26 +5657,24 @@
         <v>56</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>287</v>
+        <v>132</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s" s="2">
-        <v>291</v>
+        <v>245</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>45</v>
+        <v>246</v>
       </c>
       <c r="R32" t="s" s="2">
         <v>45</v>
@@ -5513,17 +5704,19 @@
         <v>45</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AB32" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="AC32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>264</v>
+        <v>45</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>286</v>
+        <v>247</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>43</v>
@@ -5532,7 +5725,7 @@
         <v>55</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>67</v>
@@ -5541,28 +5734,26 @@
         <v>45</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>294</v>
+        <v>248</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>295</v>
+        <v>249</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>45</v>
       </c>
@@ -5583,19 +5774,17 @@
         <v>56</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>287</v>
+        <v>57</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>288</v>
+        <v>251</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>252</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" t="s" s="2">
-        <v>291</v>
+        <v>253</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>45</v>
@@ -5644,7 +5833,7 @@
         <v>45</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>43</v>
@@ -5653,7 +5842,7 @@
         <v>55</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>292</v>
+        <v>45</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>67</v>
@@ -5662,24 +5851,24 @@
         <v>45</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>293</v>
+        <v>45</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>294</v>
+        <v>255</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>295</v>
+        <v>256</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5699,19 +5888,23 @@
         <v>45</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>57</v>
+        <v>258</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>259</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>70</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>262</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>45</v>
       </c>
@@ -5759,7 +5952,7 @@
         <v>45</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>71</v>
+        <v>263</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>43</v>
@@ -5771,7 +5964,7 @@
         <v>45</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ34" t="s" s="2">
         <v>45</v>
@@ -5780,10 +5973,10 @@
         <v>45</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>72</v>
+        <v>265</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>45</v>
@@ -5794,18 +5987,18 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>299</v>
+        <v>266</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>45</v>
@@ -5814,21 +6007,23 @@
         <v>45</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>77</v>
+        <v>268</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>269</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="O35" t="s" s="2">
         <v>45</v>
       </c>
@@ -5864,31 +6059,31 @@
         <v>45</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>81</v>
+        <v>45</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>82</v>
+        <v>271</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ35" t="s" s="2">
         <v>45</v>
@@ -5897,10 +6092,10 @@
         <v>45</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>45</v>
+        <v>272</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>72</v>
+        <v>273</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>45</v>
@@ -5909,23 +6104,23 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>45</v>
+        <v>275</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>45</v>
@@ -5934,19 +6129,19 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>304</v>
+        <v>278</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>305</v>
+        <v>279</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>45</v>
@@ -5956,7 +6151,7 @@
         <v>45</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>45</v>
+        <v>280</v>
       </c>
       <c r="S36" t="s" s="2">
         <v>45</v>
@@ -5971,13 +6166,13 @@
         <v>45</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>45</v>
+        <v>282</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>45</v>
@@ -5995,10 +6190,10 @@
         <v>45</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>55</v>
@@ -6010,27 +6205,27 @@
         <v>67</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>45</v>
+        <v>283</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>45</v>
+        <v>284</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>307</v>
+        <v>285</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>308</v>
+        <v>286</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>45</v>
+        <v>287</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>45</v>
+        <v>288</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>309</v>
+        <v>289</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6038,39 +6233,39 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>132</v>
+        <v>290</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="M37" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="N37" t="s" s="2">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="O37" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P37" t="s" s="2">
-        <v>313</v>
-      </c>
+      <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
         <v>45</v>
       </c>
@@ -6090,13 +6285,13 @@
         <v>45</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>195</v>
+        <v>45</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>314</v>
+        <v>45</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>315</v>
+        <v>45</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>45</v>
@@ -6114,7 +6309,7 @@
         <v>45</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>43</v>
@@ -6129,19 +6324,19 @@
         <v>67</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>45</v>
+        <v>295</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>317</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>45</v>
@@ -6149,7 +6344,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>319</v>
+        <v>299</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6160,7 +6355,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>45</v>
@@ -6172,18 +6367,18 @@
         <v>56</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>57</v>
+        <v>300</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="M38" s="2"/>
-      <c r="N38" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>45</v>
       </c>
@@ -6207,11 +6402,13 @@
         <v>45</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="X38" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>45</v>
+      </c>
       <c r="Y38" t="s" s="2">
-        <v>323</v>
+        <v>45</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>45</v>
@@ -6229,13 +6426,13 @@
         <v>45</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>324</v>
+        <v>299</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>45</v>
@@ -6250,13 +6447,13 @@
         <v>45</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>326</v>
+        <v>304</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>45</v>
@@ -6264,18 +6461,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>305</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>45</v>
+        <v>306</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>45</v>
@@ -6287,17 +6484,19 @@
         <v>56</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>97</v>
+        <v>307</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>308</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>309</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="N39" t="s" s="2">
-        <v>330</v>
+        <v>311</v>
       </c>
       <c r="O39" t="s" s="2">
         <v>45</v>
@@ -6346,7 +6545,7 @@
         <v>45</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>331</v>
+        <v>305</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>43</v>
@@ -6355,25 +6554,25 @@
         <v>55</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>332</v>
+        <v>45</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>67</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>45</v>
+        <v>312</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>333</v>
+        <v>314</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>45</v>
+        <v>315</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>45</v>
@@ -6381,21 +6580,21 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>334</v>
+        <v>316</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>45</v>
@@ -6404,19 +6603,19 @@
         <v>56</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>132</v>
+        <v>318</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>335</v>
+        <v>319</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>336</v>
+        <v>320</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>337</v>
+        <v>321</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="O40" t="s" s="2">
         <v>45</v>
@@ -6453,19 +6652,17 @@
         <v>45</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>339</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>43</v>
@@ -6474,68 +6671,70 @@
         <v>55</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>45</v>
+        <v>325</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>45</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>331</v>
+      </c>
       <c r="C41" t="s" s="2">
-        <v>45</v>
+        <v>317</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>204</v>
+        <v>318</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>345</v>
+        <v>322</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>45</v>
@@ -6560,13 +6759,13 @@
         <v>45</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>346</v>
+        <v>45</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>347</v>
+        <v>45</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>45</v>
@@ -6584,7 +6783,7 @@
         <v>45</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>341</v>
+        <v>316</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>43</v>
@@ -6593,25 +6792,25 @@
         <v>55</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>67</v>
+        <v>326</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>45</v>
+        <v>327</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>155</v>
+        <v>328</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>349</v>
+        <v>329</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>45</v>
+        <v>330</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>45</v>
@@ -6619,11 +6818,11 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
@@ -6639,23 +6838,21 @@
         <v>45</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>204</v>
+        <v>91</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>352</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>353</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>335</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>45</v>
       </c>
@@ -6679,13 +6876,13 @@
         <v>45</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>356</v>
+        <v>45</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>357</v>
+        <v>45</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>45</v>
@@ -6703,13 +6900,13 @@
         <v>45</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>350</v>
+        <v>332</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>45</v>
@@ -6721,24 +6918,24 @@
         <v>45</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>358</v>
+        <v>45</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>360</v>
+        <v>337</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>45</v>
+        <v>338</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6749,7 +6946,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>45</v>
@@ -6758,22 +6955,20 @@
         <v>45</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>45</v>
@@ -6822,7 +7017,7 @@
         <v>45</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>362</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>43</v>
@@ -6837,19 +7032,19 @@
         <v>67</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>45</v>
+        <v>344</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>368</v>
+        <v>345</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>45</v>
+        <v>347</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>45</v>
@@ -6857,7 +7052,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6868,30 +7063,32 @@
         <v>43</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>371</v>
+        <v>350</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>372</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>45</v>
       </c>
@@ -6915,31 +7112,29 @@
         <v>45</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>374</v>
+        <v>45</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>375</v>
+        <v>45</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="AB44" s="2"/>
       <c r="AC44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>45</v>
+        <v>324</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>370</v>
+        <v>348</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>43</v>
@@ -6948,7 +7143,7 @@
         <v>55</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>67</v>
@@ -6957,26 +7152,28 @@
         <v>45</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>376</v>
+        <v>354</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>377</v>
+        <v>355</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>379</v>
+        <v>357</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="B45" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="C45" t="s" s="2">
         <v>45</v>
       </c>
@@ -6985,31 +7182,31 @@
         <v>43</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>204</v>
+        <v>349</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>382</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>383</v>
+        <v>351</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>45</v>
@@ -7034,13 +7231,13 @@
         <v>45</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>385</v>
+        <v>45</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>386</v>
+        <v>45</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>45</v>
@@ -7058,7 +7255,7 @@
         <v>45</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>380</v>
+        <v>348</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>43</v>
@@ -7067,7 +7264,7 @@
         <v>55</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>45</v>
+        <v>353</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>67</v>
@@ -7076,24 +7273,24 @@
         <v>45</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>45</v>
+        <v>354</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>387</v>
+        <v>355</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>388</v>
+        <v>356</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>45</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>389</v>
+        <v>359</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7104,7 +7301,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>45</v>
@@ -7116,17 +7313,15 @@
         <v>45</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>391</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>393</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>45</v>
@@ -7175,7 +7370,7 @@
         <v>45</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>389</v>
+        <v>71</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>43</v>
@@ -7187,41 +7382,41 @@
         <v>45</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="AJ46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>394</v>
+        <v>45</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>395</v>
+        <v>45</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>396</v>
+        <v>72</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>397</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>398</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>45</v>
@@ -7233,16 +7428,16 @@
         <v>45</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>399</v>
+        <v>75</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>400</v>
+        <v>76</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>401</v>
+        <v>77</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>402</v>
+        <v>78</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -7280,54 +7475,54 @@
         <v>45</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>403</v>
+        <v>45</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>404</v>
+        <v>45</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>405</v>
+        <v>72</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO47" t="s" s="2">
-        <v>406</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7338,7 +7533,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>45</v>
@@ -7347,22 +7542,22 @@
         <v>45</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>45</v>
@@ -7411,19 +7606,19 @@
         <v>45</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>413</v>
+        <v>67</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>45</v>
@@ -7432,10 +7627,10 @@
         <v>45</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>45</v>
@@ -7446,7 +7641,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7463,26 +7658,30 @@
         <v>45</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>69</v>
+        <v>371</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>70</v>
+        <v>372</v>
       </c>
       <c r="M49" s="2"/>
-      <c r="N49" s="2"/>
+      <c r="N49" t="s" s="2">
+        <v>373</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="P49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>374</v>
+      </c>
       <c r="Q49" t="s" s="2">
         <v>45</v>
       </c>
@@ -7502,13 +7701,13 @@
         <v>45</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>45</v>
+        <v>195</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>45</v>
+        <v>375</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>45</v>
+        <v>376</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>45</v>
@@ -7526,7 +7725,7 @@
         <v>45</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>71</v>
+        <v>377</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>43</v>
@@ -7538,7 +7737,7 @@
         <v>45</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>45</v>
@@ -7547,10 +7746,10 @@
         <v>45</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>45</v>
+        <v>378</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>72</v>
+        <v>379</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>45</v>
@@ -7561,18 +7760,18 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>417</v>
+        <v>380</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>45</v>
@@ -7581,21 +7780,21 @@
         <v>45</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>76</v>
+        <v>381</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>382</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>45</v>
       </c>
@@ -7619,13 +7818,11 @@
         <v>45</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="X50" t="s" s="2">
-        <v>45</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="X50" s="2"/>
       <c r="Y50" t="s" s="2">
-        <v>45</v>
+        <v>384</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>45</v>
@@ -7643,19 +7840,19 @@
         <v>45</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>82</v>
+        <v>385</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>45</v>
@@ -7664,10 +7861,10 @@
         <v>45</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>72</v>
+        <v>387</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>45</v>
@@ -7678,42 +7875,40 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>418</v>
+        <v>388</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>419</v>
+        <v>45</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>45</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>56</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>420</v>
+        <v>389</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" t="s" s="2">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="O51" t="s" s="2">
         <v>45</v>
@@ -7762,19 +7957,19 @@
         <v>45</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>423</v>
+        <v>392</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>45</v>
+        <v>393</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>45</v>
@@ -7783,10 +7978,10 @@
         <v>45</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>155</v>
+        <v>394</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>45</v>
@@ -7797,7 +7992,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>424</v>
+        <v>395</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7817,19 +8012,23 @@
         <v>45</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>425</v>
+        <v>132</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>426</v>
+        <v>396</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" s="2"/>
+        <v>397</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>399</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>45</v>
       </c>
@@ -7877,7 +8076,7 @@
         <v>45</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>43</v>
@@ -7886,7 +8085,7 @@
         <v>55</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>428</v>
+        <v>45</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>67</v>
@@ -7898,10 +8097,10 @@
         <v>45</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>429</v>
+        <v>386</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>430</v>
+        <v>401</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>45</v>
@@ -7910,9 +8109,9 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7923,10 +8122,10 @@
         <v>43</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>45</v>
@@ -7935,16 +8134,20 @@
         <v>45</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>425</v>
+        <v>203</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>432</v>
+        <v>403</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>433</v>
-      </c>
-      <c r="M53" s="2"/>
-      <c r="N53" s="2"/>
+        <v>404</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>406</v>
+      </c>
       <c r="O53" t="s" s="2">
         <v>45</v>
       </c>
@@ -7968,13 +8171,13 @@
         <v>45</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>45</v>
+        <v>407</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>45</v>
+        <v>408</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>45</v>
@@ -7992,7 +8195,7 @@
         <v>45</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>43</v>
@@ -8001,7 +8204,7 @@
         <v>55</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>428</v>
+        <v>409</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>67</v>
@@ -8013,10 +8216,10 @@
         <v>45</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>429</v>
+        <v>155</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>45</v>
@@ -8027,18 +8230,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>45</v>
+        <v>412</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>45</v>
@@ -8050,19 +8253,19 @@
         <v>45</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>45</v>
@@ -8087,13 +8290,13 @@
         <v>45</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>45</v>
@@ -8111,13 +8314,13 @@
         <v>45</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>435</v>
+        <v>411</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>45</v>
@@ -8129,24 +8332,24 @@
         <v>45</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>45</v>
+        <v>422</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8157,7 +8360,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>45</v>
@@ -8169,19 +8372,19 @@
         <v>45</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>204</v>
+        <v>424</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>445</v>
+        <v>425</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>446</v>
+        <v>426</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>447</v>
+        <v>427</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>448</v>
+        <v>428</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>45</v>
@@ -8206,13 +8409,13 @@
         <v>45</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>449</v>
+        <v>45</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>450</v>
+        <v>45</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>45</v>
@@ -8230,7 +8433,7 @@
         <v>45</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>444</v>
+        <v>423</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>43</v>
@@ -8248,13 +8451,13 @@
         <v>45</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>442</v>
+        <v>45</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>45</v>
@@ -8265,7 +8468,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8276,7 +8479,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>45</v>
@@ -8288,18 +8491,18 @@
         <v>45</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>452</v>
+        <v>203</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>453</v>
+        <v>432</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>455</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>45</v>
       </c>
@@ -8323,13 +8526,13 @@
         <v>45</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>45</v>
+        <v>435</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>45</v>
+        <v>436</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>45</v>
@@ -8347,7 +8550,7 @@
         <v>45</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>451</v>
+        <v>431</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>43</v>
@@ -8365,24 +8568,24 @@
         <v>45</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>45</v>
+        <v>437</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>45</v>
+        <v>438</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO56" t="s" s="2">
-        <v>45</v>
+        <v>440</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8393,7 +8596,7 @@
         <v>43</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>45</v>
@@ -8405,16 +8608,20 @@
         <v>45</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>57</v>
+        <v>203</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+        <v>443</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>445</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>45</v>
       </c>
@@ -8438,13 +8645,13 @@
         <v>45</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>45</v>
+        <v>122</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>45</v>
+        <v>446</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>45</v>
+        <v>447</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>45</v>
@@ -8462,7 +8669,7 @@
         <v>45</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>43</v>
@@ -8483,10 +8690,10 @@
         <v>45</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>429</v>
+        <v>448</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>45</v>
@@ -8497,7 +8704,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8517,19 +8724,19 @@
         <v>45</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8579,13 +8786,13 @@
         <v>45</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>45</v>
@@ -8597,24 +8804,24 @@
         <v>45</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>45</v>
+        <v>455</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>45</v>
+        <v>458</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8634,19 +8841,19 @@
         <v>45</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8696,13 +8903,13 @@
         <v>45</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>45</v>
@@ -8714,24 +8921,24 @@
         <v>45</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>45</v>
+        <v>464</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="AM59" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="AN59" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO59" t="s" s="2">
-        <v>45</v>
+        <v>467</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8751,22 +8958,22 @@
         <v>45</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>408</v>
+        <v>469</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>45</v>
@@ -8815,7 +9022,7 @@
         <v>45</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>43</v>
@@ -8827,7 +9034,7 @@
         <v>45</v>
       </c>
       <c r="AI60" t="s" s="2">
-        <v>67</v>
+        <v>474</v>
       </c>
       <c r="AJ60" t="s" s="2">
         <v>45</v>
@@ -8836,10 +9043,10 @@
         <v>45</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>45</v>
@@ -8850,7 +9057,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8965,7 +9172,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9082,11 +9289,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>419</v>
+        <v>480</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9108,16 +9315,16 @@
         <v>75</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>420</v>
+        <v>481</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>421</v>
+        <v>482</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>78</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>422</v>
+        <v>483</v>
       </c>
       <c r="O63" t="s" s="2">
         <v>45</v>
@@ -9166,7 +9373,7 @@
         <v>45</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>484</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>43</v>
@@ -9201,7 +9408,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9209,7 +9416,7 @@
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>55</v>
@@ -9221,23 +9428,19 @@
         <v>45</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>204</v>
+        <v>486</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>488</v>
+      </c>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>45</v>
       </c>
@@ -9261,13 +9464,13 @@
         <v>45</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>122</v>
+        <v>45</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>221</v>
+        <v>45</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>222</v>
+        <v>45</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>45</v>
@@ -9285,16 +9488,16 @@
         <v>45</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>55</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>67</v>
@@ -9303,16 +9506,16 @@
         <v>45</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>488</v>
+        <v>45</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>225</v>
+        <v>490</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>226</v>
+        <v>491</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>227</v>
+        <v>45</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>45</v>
@@ -9320,7 +9523,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9340,23 +9543,19 @@
         <v>45</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>291</v>
-      </c>
+        <v>494</v>
+      </c>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>45</v>
       </c>
@@ -9404,7 +9603,7 @@
         <v>45</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>43</v>
@@ -9413,7 +9612,7 @@
         <v>55</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>45</v>
+        <v>489</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>67</v>
@@ -9422,24 +9621,24 @@
         <v>45</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>493</v>
+        <v>45</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>294</v>
+        <v>490</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>295</v>
+        <v>495</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO65" t="s" s="2">
-        <v>296</v>
+        <v>45</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9462,19 +9661,19 @@
         <v>45</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>345</v>
+        <v>500</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>45</v>
@@ -9499,13 +9698,13 @@
         <v>45</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>346</v>
+        <v>501</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>347</v>
+        <v>502</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>45</v>
@@ -9523,7 +9722,7 @@
         <v>45</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>43</v>
@@ -9532,7 +9731,7 @@
         <v>55</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>348</v>
+        <v>45</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>67</v>
@@ -9541,13 +9740,13 @@
         <v>45</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>45</v>
+        <v>503</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>155</v>
+        <v>504</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>349</v>
+        <v>421</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>45</v>
@@ -9558,11 +9757,11 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>351</v>
+        <v>45</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
@@ -9581,19 +9780,19 @@
         <v>45</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>352</v>
+        <v>506</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>353</v>
+        <v>507</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>354</v>
+        <v>508</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>355</v>
+        <v>509</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>45</v>
@@ -9618,13 +9817,13 @@
         <v>45</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>356</v>
+        <v>510</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>357</v>
+        <v>511</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>45</v>
@@ -9642,7 +9841,7 @@
         <v>45</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>43</v>
@@ -9660,24 +9859,24 @@
         <v>45</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>358</v>
+        <v>503</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>359</v>
+        <v>504</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>360</v>
+        <v>421</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>45</v>
       </c>
       <c r="AO67" t="s" s="2">
-        <v>361</v>
+        <v>45</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9688,7 +9887,7 @@
         <v>43</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>45</v>
@@ -9700,19 +9899,17 @@
         <v>45</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>45</v>
+        <v>513</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>500</v>
+        <v>514</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>411</v>
-      </c>
+        <v>515</v>
+      </c>
+      <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>412</v>
+        <v>516</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>45</v>
@@ -9761,13 +9958,13 @@
         <v>45</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>45</v>
@@ -9782,20 +9979,1434 @@
         <v>45</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="69" hidden="true">
+      <c r="A69" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="B69" s="2"/>
+      <c r="C69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P69" s="2"/>
+      <c r="Q69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="B70" s="2"/>
+      <c r="C70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P70" s="2"/>
+      <c r="Q70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" hidden="true">
+      <c r="A71" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B71" s="2"/>
+      <c r="C71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P71" s="2"/>
+      <c r="Q71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="B72" s="2"/>
+      <c r="C72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P72" s="2"/>
+      <c r="Q72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B73" s="2"/>
+      <c r="C73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P73" s="2"/>
+      <c r="Q73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="74" hidden="true">
+      <c r="A74" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B74" s="2"/>
+      <c r="C74" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N74" s="2"/>
+      <c r="O74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P74" s="2"/>
+      <c r="Q74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="O75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="O78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="L79" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="M79" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN68" t="s" s="2">
-        <v>45</v>
-      </c>
-      <c r="AO68" t="s" s="2">
+      <c r="N79" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="O79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="AN79" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO79" t="s" s="2">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="AO80" t="s" s="2">
         <v>45</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AO68">
+  <autoFilter ref="A1:AO80">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9805,7 +11416,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI67">
+  <conditionalFormatting sqref="A2:AI79">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -91,7 +91,7 @@
 - must have LOINC#29463-7 code
 - must have effectiveDateTime
 - must have valueQuantity with units from the MHV body weights (lbs and kg)
-  - must be value 60 &lt; n &lt; 1000 lbs
+  - must be value 60 &lt;= n &lt;= 1000 lbs
 - must have status at final
 - must point at the patient
 - may have a note (comment)

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -81,7 +81,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -93,6 +93,7 @@
 - must have vital-signs category
 - must have LOINC#29463-7 code
 - must have effectiveDateTime
+  - others might use effectivePeriod
 - must have valueQuantity with units from the MHV body weights (lbs and kg)
   - must be value 60 &lt;= n &lt;= 1000 lbs
 - must have status at final

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="629">
   <si>
     <t>Property</t>
   </si>
@@ -278,6 +278,10 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>FHIR Vital Signs Profile</t>
@@ -2536,16 +2540,16 @@
         <v>82</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2610,16 +2614,16 @@
         <v>82</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2630,10 +2634,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2644,7 +2648,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2653,19 +2657,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2715,13 +2719,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2750,10 +2754,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2764,7 +2768,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2773,16 +2777,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2833,19 +2837,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2868,10 +2872,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2882,7 +2886,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2894,13 +2898,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2951,13 +2955,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2975,7 +2979,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2986,14 +2990,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3012,16 +3016,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3059,19 +3063,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3083,7 +3087,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3095,7 +3099,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3106,10 +3110,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3120,7 +3124,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3129,19 +3133,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3191,19 +3195,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3226,10 +3230,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3240,7 +3244,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3249,19 +3253,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3311,19 +3315,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3346,10 +3350,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3360,7 +3364,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3369,19 +3373,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3431,19 +3435,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3466,10 +3470,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3489,19 +3493,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3551,7 +3555,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3563,7 +3567,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3586,10 +3590,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3609,19 +3613,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3647,13 +3651,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3671,7 +3675,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3683,7 +3687,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3706,10 +3710,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3717,10 +3721,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3729,19 +3733,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3752,7 +3756,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3767,13 +3771,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3791,7 +3795,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3803,7 +3807,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3826,10 +3830,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3846,22 +3850,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3911,19 +3915,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3946,10 +3950,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3972,16 +3976,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4007,13 +4011,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4031,19 +4035,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4066,21 +4070,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4092,16 +4096,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4151,19 +4155,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4175,7 +4179,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4186,14 +4190,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4212,16 +4216,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4271,7 +4275,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4295,7 +4299,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4306,10 +4310,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4332,13 +4336,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4389,7 +4393,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4401,7 +4405,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4424,10 +4428,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4444,19 +4448,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4507,7 +4511,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4519,7 +4523,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4542,10 +4546,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4565,20 +4569,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4627,7 +4631,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4639,22 +4643,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4662,14 +4666,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4685,20 +4689,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4747,7 +4751,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4759,19 +4763,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4782,14 +4786,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4805,19 +4809,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4867,7 +4871,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4879,19 +4883,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4902,10 +4906,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4913,34 +4917,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4950,7 +4954,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4965,11 +4969,11 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4987,34 +4991,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5022,10 +5026,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5033,13 +5037,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -5048,19 +5052,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5085,29 +5089,29 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5119,7 +5123,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5131,10 +5135,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5142,26 +5146,26 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5170,19 +5174,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5207,13 +5211,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5231,7 +5235,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5243,7 +5247,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5255,10 +5259,10 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5266,10 +5270,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5280,7 +5284,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5292,13 +5296,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5349,13 +5353,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5373,7 +5377,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5384,14 +5388,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5410,16 +5414,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5457,19 +5461,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5481,7 +5485,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5493,7 +5497,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5504,10 +5508,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5515,34 +5519,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5591,7 +5595,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5603,7 +5607,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5612,10 +5616,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5626,10 +5630,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5640,7 +5644,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5652,13 +5656,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5709,13 +5713,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5733,7 +5737,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5744,14 +5748,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5770,16 +5774,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5817,19 +5821,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5841,7 +5845,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5853,7 +5857,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5864,10 +5868,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5875,41 +5879,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -5951,19 +5955,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5972,10 +5976,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5986,10 +5990,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6000,7 +6004,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -6009,19 +6013,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6071,19 +6075,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6092,10 +6096,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6106,10 +6110,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6117,39 +6121,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>82</v>
@@ -6191,19 +6195,19 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6212,10 +6216,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6226,10 +6230,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6240,7 +6244,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6249,20 +6253,20 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6311,19 +6315,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6332,10 +6336,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6346,10 +6350,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6360,7 +6364,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6369,22 +6373,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6433,19 +6437,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6454,10 +6458,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6468,10 +6472,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6482,7 +6486,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6491,22 +6495,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6555,19 +6559,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6576,10 +6580,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6590,45 +6594,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6638,7 +6642,7 @@
         <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>82</v>
@@ -6653,13 +6657,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6677,45 +6681,45 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6723,34 +6727,34 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6799,34 +6803,34 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6834,10 +6838,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6857,19 +6861,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6919,7 +6923,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6931,7 +6935,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6940,13 +6944,13 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6954,14 +6958,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6977,22 +6981,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7041,34 +7045,34 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7076,45 +7080,45 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7151,44 +7155,44 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7196,47 +7200,47 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7285,34 +7289,34 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7320,10 +7324,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7343,19 +7347,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7405,19 +7409,19 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7426,13 +7430,13 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7440,10 +7444,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7463,20 +7467,20 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7525,7 +7529,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7537,22 +7541,22 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7560,10 +7564,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7574,31 +7578,31 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7635,58 +7639,58 @@
         <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AC44" s="2"/>
       <c r="AD44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>82</v>
@@ -7696,31 +7700,31 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7769,45 +7773,45 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7818,7 +7822,7 @@
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7830,13 +7834,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7887,13 +7891,13 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
@@ -7911,7 +7915,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7922,14 +7926,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7948,16 +7952,16 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7995,19 +7999,19 @@
         <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8019,7 +8023,7 @@
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8031,7 +8035,7 @@
         <v>82</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8042,10 +8046,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8056,7 +8060,7 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
@@ -8065,22 +8069,22 @@
         <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
@@ -8096,10 +8100,10 @@
         <v>82</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>82</v>
@@ -8129,19 +8133,19 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8150,10 +8154,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8164,10 +8168,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8178,35 +8182,35 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q49" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="R49" t="s" s="2">
         <v>82</v>
@@ -8227,13 +8231,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8251,19 +8255,19 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8272,10 +8276,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8286,10 +8290,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8300,7 +8304,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8309,20 +8313,20 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8347,11 +8351,11 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8369,19 +8373,19 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8390,10 +8394,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8404,10 +8408,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8418,7 +8422,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8427,20 +8431,20 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8489,19 +8493,19 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8510,10 +8514,10 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8524,10 +8528,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8538,7 +8542,7 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>82</v>
@@ -8547,22 +8551,22 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8611,19 +8615,19 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8632,10 +8636,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8646,10 +8650,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8663,7 +8667,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
@@ -8672,19 +8676,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8709,13 +8713,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8733,19 +8737,19 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8754,10 +8758,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8768,14 +8772,14 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8794,19 +8798,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8831,13 +8835,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8855,7 +8859,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8867,33 +8871,33 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8904,7 +8908,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8916,19 +8920,19 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
@@ -8977,7 +8981,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8989,7 +8993,7 @@
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
@@ -8998,10 +9002,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -9012,10 +9016,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9038,16 +9042,16 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -9073,13 +9077,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9097,45 +9101,45 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9158,19 +9162,19 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -9195,13 +9199,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9219,19 +9223,19 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>82</v>
@@ -9240,10 +9244,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -9254,10 +9258,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9280,16 +9284,16 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9339,45 +9343,45 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9400,16 +9404,16 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -9459,45 +9463,45 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9520,19 +9524,19 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O60" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
@@ -9581,7 +9585,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9593,7 +9597,7 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9602,10 +9606,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9616,10 +9620,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9630,7 +9634,7 @@
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9642,13 +9646,13 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9699,13 +9703,13 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
@@ -9723,7 +9727,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9734,14 +9738,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9760,16 +9764,16 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -9819,7 +9823,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9831,7 +9835,7 @@
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9843,7 +9847,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9854,14 +9858,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9874,25 +9878,25 @@
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9941,7 +9945,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9953,7 +9957,7 @@
         <v>82</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9965,7 +9969,7 @@
         <v>82</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9976,10 +9980,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9990,7 +9994,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -10002,13 +10006,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10059,19 +10063,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10080,10 +10084,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10094,10 +10098,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10108,7 +10112,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10120,13 +10124,13 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -10177,19 +10181,19 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
@@ -10198,10 +10202,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10212,10 +10216,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10226,7 +10230,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10238,19 +10242,19 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10275,13 +10279,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10299,31 +10303,31 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10334,10 +10338,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10360,19 +10364,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10397,13 +10401,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10421,7 +10425,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10433,19 +10437,19 @@
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10456,10 +10460,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10470,7 +10474,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10482,17 +10486,17 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10541,19 +10545,19 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10565,7 +10569,7 @@
         <v>82</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10576,10 +10580,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10590,7 +10594,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10602,13 +10606,13 @@
         <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10659,19 +10663,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10680,10 +10684,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10694,10 +10698,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10717,19 +10721,19 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10779,7 +10783,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10791,7 +10795,7 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10800,10 +10804,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10814,10 +10818,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10837,19 +10841,19 @@
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10899,7 +10903,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10911,7 +10915,7 @@
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
@@ -10920,10 +10924,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10934,10 +10938,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10951,28 +10955,28 @@
         <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="O72" t="s" s="2">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
@@ -11021,7 +11025,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11033,7 +11037,7 @@
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11042,10 +11046,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11056,10 +11060,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11070,7 +11074,7 @@
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11082,13 +11086,13 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -11139,13 +11143,13 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
@@ -11163,7 +11167,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11174,14 +11178,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11200,16 +11204,16 @@
         <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11259,7 +11263,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11271,7 +11275,7 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11283,7 +11287,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11294,14 +11298,14 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
@@ -11314,25 +11318,25 @@
         <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11381,7 +11385,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11393,7 +11397,7 @@
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
@@ -11405,7 +11409,7 @@
         <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>82</v>
@@ -11416,10 +11420,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11427,34 +11431,34 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11479,13 +11483,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11503,34 +11507,34 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AP76" t="s" s="2">
         <v>82</v>
@@ -11538,10 +11542,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11552,31 +11556,31 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11601,13 +11605,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11625,45 +11629,45 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11674,10 +11678,10 @@
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>82</v>
@@ -11686,19 +11690,19 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11723,13 +11727,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11747,19 +11751,19 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
@@ -11768,10 +11772,10 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
@@ -11782,14 +11786,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11808,19 +11812,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11845,13 +11849,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11869,7 +11873,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11881,33 +11885,33 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11933,16 +11937,16 @@
         <v>82</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11991,7 +11995,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>80</v>
@@ -12003,7 +12007,7 @@
         <v>82</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>82</v>
@@ -12012,10 +12016,10 @@
         <v>82</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AO80" t="s" s="2">
         <v>82</v>

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -87,7 +87,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the Observation that declares how MHV will Create/Update in PGHD for body weight measurements.
+    <t>A profile on the Observation that declares how MHV will Create in PGHD for body weight measurements.
 Note this is compliant with FHIR core vital-signs.
 - must be marked with MHV app tag
 - must have vital-signs category

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$80</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$79</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="621">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -95,7 +95,7 @@
 - must have effectiveDateTime
   - others might use effectivePeriod
 - must have valueQuantity with units from the MHV body weights (lbs and kg)
-  - must be value 60 &lt;= n &lt;= 1000 lbs
+  - must be value 0.25 &lt;= n &lt;= 999 lbs
 - must have status at final
 - must point at the patient
 - may have a note (comment)
@@ -293,6 +293,10 @@
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}vs-2:If there is no component or hasMember element then either a value[x] or a data absent reason must be present. {(component.empty() and hasMember.empty()) implies (dataAbsentReason.exists() or value.exists())}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -450,7 +454,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -470,7 +474,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -1202,7 +1206,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {($this as dateTime).toString().length() &gt;= 8}</t>
+vs-1:if Observation.effective[x] is dateTime and has a value then that value shall be precise to the day {$this is dateTime implies $this.toString().length() &gt;= 10}</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
@@ -1304,25 +1308,10 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity</t>
-  </si>
-  <si>
-    <t>valueQuantity</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.id</t>
-  </si>
-  <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.extension</t>
-  </si>
-  <si>
     <t>Observation.value[x].extension</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.value</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
@@ -1345,14 +1334,14 @@
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="60"/&gt;
+  &lt;value value="0.25"/&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="[lb_av]"/&gt;
 &lt;/valueQuantity&gt;</t>
   </si>
   <si>
     <t>&lt;valueQuantity xmlns="http://hl7.org/fhir"&gt;
-  &lt;value value="1000"/&gt;
+  &lt;value value="999"/&gt;
   &lt;system value="http://unitsofmeasure.org"/&gt;
   &lt;code value="[lb_av]"/&gt;
 &lt;/valueQuantity&gt;</t>
@@ -1367,9 +1356,6 @@
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.comparator</t>
-  </si>
-  <si>
     <t>Observation.value[x].comparator</t>
   </si>
   <si>
@@ -1400,9 +1386,6 @@
     <t>IVL properties</t>
   </si>
   <si>
-    <t>Observation.value[x]:valueQuantity.unit</t>
-  </si>
-  <si>
     <t>Observation.value[x].unit</t>
   </si>
   <si>
@@ -1425,9 +1408,6 @@
   </si>
   <si>
     <t>PQ.unit</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.system</t>
   </si>
   <si>
     <t>Observation.value[x].system</t>
@@ -1450,9 +1430,6 @@
   </si>
   <si>
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
-  </si>
-  <si>
-    <t>Observation.value[x]:valueQuantity.code</t>
   </si>
   <si>
     <t>Observation.value[x].code</t>
@@ -2124,10 +2101,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -2332,7 +2309,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP80"/>
+  <dimension ref="A1:AP79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2611,19 +2588,19 @@
         <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AO2" t="s" s="2">
         <v>82</v>
@@ -2634,10 +2611,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2648,7 +2625,7 @@
         <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>82</v>
@@ -2657,19 +2634,19 @@
         <v>82</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2719,13 +2696,13 @@
         <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>82</v>
@@ -2754,10 +2731,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2768,7 +2745,7 @@
         <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>82</v>
@@ -2777,16 +2754,16 @@
         <v>82</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2837,19 +2814,19 @@
         <v>82</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>82</v>
@@ -2872,10 +2849,10 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2886,7 +2863,7 @@
         <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>82</v>
@@ -2898,13 +2875,13 @@
         <v>82</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2955,13 +2932,13 @@
         <v>82</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>82</v>
@@ -2979,7 +2956,7 @@
         <v>82</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO5" t="s" s="2">
         <v>82</v>
@@ -2990,14 +2967,14 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -3016,16 +2993,16 @@
         <v>82</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -3063,19 +3040,19 @@
         <v>82</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
@@ -3087,7 +3064,7 @@
         <v>82</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>82</v>
@@ -3099,7 +3076,7 @@
         <v>82</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO6" t="s" s="2">
         <v>82</v>
@@ -3110,10 +3087,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3124,7 +3101,7 @@
         <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>82</v>
@@ -3133,19 +3110,19 @@
         <v>82</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3195,19 +3172,19 @@
         <v>82</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>82</v>
@@ -3230,10 +3207,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3244,7 +3221,7 @@
         <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>82</v>
@@ -3253,19 +3230,19 @@
         <v>82</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3315,19 +3292,19 @@
         <v>82</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>82</v>
@@ -3350,10 +3327,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3364,7 +3341,7 @@
         <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>82</v>
@@ -3373,19 +3350,19 @@
         <v>82</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3435,19 +3412,19 @@
         <v>82</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>82</v>
@@ -3470,10 +3447,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3493,19 +3470,19 @@
         <v>82</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3555,7 +3532,7 @@
         <v>82</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3567,7 +3544,7 @@
         <v>82</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>82</v>
@@ -3590,10 +3567,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3613,19 +3590,19 @@
         <v>82</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3651,13 +3628,13 @@
         <v>82</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>82</v>
@@ -3675,7 +3652,7 @@
         <v>82</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3687,7 +3664,7 @@
         <v>82</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>82</v>
@@ -3710,10 +3687,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3721,10 +3698,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>82</v>
@@ -3733,19 +3710,19 @@
         <v>82</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3756,7 +3733,7 @@
         <v>82</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>82</v>
@@ -3771,13 +3748,13 @@
         <v>82</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>82</v>
@@ -3795,7 +3772,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3807,7 +3784,7 @@
         <v>82</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>82</v>
@@ -3830,10 +3807,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3850,22 +3827,22 @@
         <v>82</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3915,19 +3892,19 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>82</v>
@@ -3950,10 +3927,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3976,16 +3953,16 @@
         <v>82</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -4011,13 +3988,13 @@
         <v>82</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>82</v>
@@ -4035,19 +4012,19 @@
         <v>82</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>82</v>
@@ -4070,21 +4047,21 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>82</v>
@@ -4096,16 +4073,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4155,19 +4132,19 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>82</v>
@@ -4179,7 +4156,7 @@
         <v>82</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO15" t="s" s="2">
         <v>82</v>
@@ -4190,14 +4167,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -4216,16 +4193,16 @@
         <v>82</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -4275,7 +4252,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -4299,7 +4276,7 @@
         <v>82</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AO16" t="s" s="2">
         <v>82</v>
@@ -4310,10 +4287,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4336,13 +4313,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4393,7 +4370,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4405,7 +4382,7 @@
         <v>82</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>82</v>
@@ -4428,10 +4405,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4448,19 +4425,19 @@
         <v>82</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>82</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4511,7 +4488,7 @@
         <v>82</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4523,7 +4500,7 @@
         <v>82</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>82</v>
@@ -4546,10 +4523,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4569,20 +4546,20 @@
         <v>82</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4631,7 +4608,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4643,22 +4620,22 @@
         <v>82</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>82</v>
@@ -4666,14 +4643,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4689,20 +4666,20 @@
         <v>82</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>82</v>
@@ -4751,7 +4728,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4763,19 +4740,19 @@
         <v>82</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
         <v>82</v>
@@ -4786,14 +4763,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4809,19 +4786,19 @@
         <v>82</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4871,7 +4848,7 @@
         <v>82</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4883,19 +4860,19 @@
         <v>82</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AO21" t="s" s="2">
         <v>82</v>
@@ -4906,10 +4883,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4917,34 +4894,34 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4954,7 +4931,7 @@
         <v>82</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>82</v>
@@ -4969,11 +4946,11 @@
         <v>82</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>82</v>
@@ -4991,34 +4968,34 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>82</v>
@@ -5026,10 +5003,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5037,13 +5014,13 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>82</v>
@@ -5052,19 +5029,19 @@
         <v>82</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>82</v>
@@ -5089,29 +5066,29 @@
         <v>82</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5123,7 +5100,7 @@
         <v>82</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>82</v>
@@ -5135,10 +5112,10 @@
         <v>82</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>82</v>
@@ -5146,26 +5123,26 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -5174,19 +5151,19 @@
         <v>82</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5211,13 +5188,13 @@
         <v>82</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>82</v>
@@ -5235,7 +5212,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5247,7 +5224,7 @@
         <v>82</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>82</v>
@@ -5259,10 +5236,10 @@
         <v>82</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>82</v>
@@ -5270,10 +5247,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5284,7 +5261,7 @@
         <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>82</v>
@@ -5296,13 +5273,13 @@
         <v>82</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -5353,13 +5330,13 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>82</v>
@@ -5377,7 +5354,7 @@
         <v>82</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5388,14 +5365,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -5414,16 +5391,16 @@
         <v>82</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -5461,19 +5438,19 @@
         <v>82</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5485,7 +5462,7 @@
         <v>82</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>82</v>
@@ -5497,7 +5474,7 @@
         <v>82</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5508,10 +5485,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5519,34 +5496,34 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5595,7 +5572,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5607,7 +5584,7 @@
         <v>82</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>82</v>
@@ -5616,10 +5593,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5630,10 +5607,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5644,7 +5621,7 @@
         <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>82</v>
@@ -5656,13 +5633,13 @@
         <v>82</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5713,13 +5690,13 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>82</v>
@@ -5737,7 +5714,7 @@
         <v>82</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5748,14 +5725,14 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5774,16 +5751,16 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5821,19 +5798,19 @@
         <v>82</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD29" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5845,7 +5822,7 @@
         <v>82</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>82</v>
@@ -5857,7 +5834,7 @@
         <v>82</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>82</v>
@@ -5868,10 +5845,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5879,41 +5856,41 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>82</v>
@@ -5955,19 +5932,19 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>82</v>
@@ -5976,10 +5953,10 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>82</v>
@@ -5990,10 +5967,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6004,7 +5981,7 @@
         <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>82</v>
@@ -6013,19 +5990,19 @@
         <v>82</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6075,19 +6052,19 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>82</v>
@@ -6096,10 +6073,10 @@
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>82</v>
@@ -6110,10 +6087,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6121,39 +6098,39 @@
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="S32" t="s" s="2">
         <v>82</v>
@@ -6195,19 +6172,19 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>82</v>
@@ -6216,10 +6193,10 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>82</v>
@@ -6230,10 +6207,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6244,7 +6221,7 @@
         <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>82</v>
@@ -6253,20 +6230,20 @@
         <v>82</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6315,19 +6292,19 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>82</v>
@@ -6336,10 +6313,10 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>82</v>
@@ -6350,10 +6327,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6364,7 +6341,7 @@
         <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>82</v>
@@ -6373,22 +6350,22 @@
         <v>82</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6437,19 +6414,19 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>82</v>
@@ -6458,10 +6435,10 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>82</v>
@@ -6472,10 +6449,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6486,7 +6463,7 @@
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>82</v>
@@ -6495,22 +6472,22 @@
         <v>82</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O35" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>82</v>
@@ -6559,19 +6536,19 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>82</v>
@@ -6580,10 +6557,10 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AO35" t="s" s="2">
         <v>82</v>
@@ -6594,45 +6571,45 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6642,7 +6619,7 @@
         <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>82</v>
@@ -6657,13 +6634,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6681,45 +6658,45 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6727,34 +6704,34 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6803,34 +6780,34 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6838,10 +6815,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6861,19 +6838,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6923,7 +6900,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6935,7 +6912,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6944,13 +6921,13 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6958,14 +6935,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6981,22 +6958,22 @@
         <v>82</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7045,34 +7022,34 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7080,45 +7057,45 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7155,44 +7132,44 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AC40" s="2"/>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7200,47 +7177,47 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>82</v>
@@ -7289,34 +7266,34 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7324,10 +7301,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7347,19 +7324,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7409,19 +7386,19 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7430,13 +7407,13 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7444,10 +7421,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7467,20 +7444,20 @@
         <v>82</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
@@ -7529,7 +7506,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7541,22 +7518,22 @@
         <v>82</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7564,10 +7541,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7578,31 +7555,31 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>82</v>
@@ -7639,59 +7616,59 @@
         <v>82</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AC44" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>373</v>
+        <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="C45" t="s" s="2">
         <v>409</v>
       </c>
+      <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7700,32 +7677,28 @@
         <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>399</v>
+        <v>107</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>400</v>
+        <v>108</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>402</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
@@ -7773,37 +7746,37 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>398</v>
+        <v>110</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>403</v>
+        <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>406</v>
+        <v>111</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" hidden="true">
@@ -7811,18 +7784,18 @@
         <v>410</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7834,15 +7807,17 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>82</v>
@@ -7879,31 +7854,31 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7915,7 +7890,7 @@
         <v>82</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7926,21 +7901,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>82</v>
@@ -7949,21 +7924,23 @@
         <v>82</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>412</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>114</v>
+        <v>413</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>115</v>
+        <v>414</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O47" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
       </c>
@@ -7978,10 +7955,10 @@
         <v>82</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>82</v>
+        <v>418</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>82</v>
@@ -7999,31 +7976,31 @@
         <v>82</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>120</v>
+        <v>419</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>82</v>
@@ -8032,10 +8009,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>110</v>
+        <v>421</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8046,10 +8023,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8060,92 +8037,92 @@
         <v>80</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J48" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q48" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="R48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K48" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="P48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>92</v>
-      </c>
       <c r="AI48" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>82</v>
@@ -8154,10 +8131,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8168,10 +8145,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8182,36 +8159,34 @@
         <v>80</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>169</v>
+        <v>107</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>429</v>
+        <v>434</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>430</v>
+        <v>435</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q49" t="s" s="2">
-        <v>431</v>
-      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
         <v>82</v>
       </c>
@@ -8231,13 +8206,11 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>432</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8255,19 +8228,19 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8276,10 +8249,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8290,10 +8263,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8304,7 +8277,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8313,20 +8286,20 @@
         <v>82</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>82</v>
@@ -8351,11 +8324,13 @@
         <v>82</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="Y50" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z50" t="s" s="2">
-        <v>442</v>
+        <v>82</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>82</v>
@@ -8373,19 +8348,19 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8394,10 +8369,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8408,7 +8383,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>447</v>
@@ -8422,7 +8397,7 @@
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8431,10 +8406,10 @@
         <v>82</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="L51" t="s" s="2">
         <v>448</v>
@@ -8442,9 +8417,11 @@
       <c r="M51" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>450</v>
+      </c>
       <c r="O51" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8493,19 +8470,19 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>452</v>
+        <v>82</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>82</v>
@@ -8514,7 +8491,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>453</v>
@@ -8531,7 +8508,7 @@
         <v>454</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8542,31 +8519,31 @@
         <v>80</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>169</v>
+        <v>241</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>456</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>459</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8591,13 +8568,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>82</v>
+        <v>459</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>82</v>
+        <v>460</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8615,19 +8592,19 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>82</v>
+        <v>461</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>82</v>
@@ -8636,10 +8613,10 @@
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>444</v>
+        <v>193</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8650,14 +8627,14 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8667,7 +8644,7 @@
         <v>80</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
@@ -8676,19 +8653,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8713,13 +8690,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8737,56 +8714,56 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8798,19 +8775,19 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>240</v>
+        <v>476</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>82</v>
@@ -8835,13 +8812,13 @@
         <v>82</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>82</v>
@@ -8859,7 +8836,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8871,25 +8848,25 @@
         <v>82</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>482</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" hidden="true">
@@ -8908,7 +8885,7 @@
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>82</v>
@@ -8920,20 +8897,18 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>484</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="N55" t="s" s="2">
-        <v>487</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>488</v>
-      </c>
+      <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8957,13 +8932,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>82</v>
+        <v>487</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>82</v>
+        <v>488</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8987,39 +8962,39 @@
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>82</v>
+        <v>489</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>82</v>
+        <v>492</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9042,18 +9017,20 @@
         <v>82</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="O56" s="2"/>
+        <v>496</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>497</v>
+      </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
       </c>
@@ -9077,13 +9054,13 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
@@ -9101,45 +9078,45 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>497</v>
+        <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>500</v>
+        <v>82</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9162,20 +9139,18 @@
         <v>82</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>240</v>
+        <v>503</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>505</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9199,49 +9174,49 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>506</v>
+        <v>82</v>
       </c>
       <c r="Z57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>501</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>508</v>
@@ -9253,15 +9228,15 @@
         <v>82</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>82</v>
+        <v>510</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9284,16 +9259,16 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9343,45 +9318,45 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9404,18 +9379,20 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>524</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9463,45 +9440,45 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>104</v>
+        <v>526</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>524</v>
+        <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>527</v>
+        <v>82</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9512,7 +9489,7 @@
         <v>80</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>82</v>
@@ -9524,20 +9501,16 @@
         <v>82</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>529</v>
+        <v>107</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>530</v>
+        <v>108</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9585,19 +9558,19 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>528</v>
+        <v>110</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>534</v>
+        <v>82</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9606,10 +9579,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>535</v>
+        <v>82</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>536</v>
+        <v>111</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9620,21 +9593,21 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
@@ -9646,15 +9619,17 @@
         <v>82</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N61" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9703,19 +9678,19 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9727,7 +9702,7 @@
         <v>82</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9738,14 +9713,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>112</v>
+        <v>532</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -9758,24 +9733,26 @@
         <v>82</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>114</v>
+        <v>533</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>115</v>
+        <v>534</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O62" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
       </c>
@@ -9823,7 +9800,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>120</v>
+        <v>536</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9835,7 +9812,7 @@
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9847,7 +9824,7 @@
         <v>82</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9858,46 +9835,42 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>113</v>
+        <v>538</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>542</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O63" t="s" s="2">
-        <v>543</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9945,19 +9918,19 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>82</v>
+        <v>541</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>82</v>
@@ -9966,10 +9939,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>192</v>
+        <v>543</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9980,10 +9953,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9994,7 +9967,7 @@
         <v>80</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>82</v>
@@ -10006,13 +9979,13 @@
         <v>82</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -10063,19 +10036,19 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>82</v>
@@ -10084,10 +10057,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10098,10 +10071,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10112,7 +10085,7 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>82</v>
@@ -10124,16 +10097,20 @@
         <v>82</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>546</v>
+        <v>241</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>554</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>550</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>552</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
       </c>
@@ -10157,13 +10134,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>82</v>
+        <v>553</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>82</v>
+        <v>554</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10181,31 +10158,31 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>549</v>
+        <v>82</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>82</v>
+        <v>555</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>555</v>
+        <v>473</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10216,10 +10193,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10230,7 +10207,7 @@
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10242,19 +10219,19 @@
         <v>82</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10279,13 +10256,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10303,31 +10280,31 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="AM66" t="s" s="2">
         <v>556</v>
       </c>
-      <c r="AG66" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>563</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>564</v>
-      </c>
       <c r="AN66" t="s" s="2">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
@@ -10338,10 +10315,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10352,7 +10329,7 @@
         <v>80</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>82</v>
@@ -10364,7 +10341,7 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>240</v>
+        <v>565</v>
       </c>
       <c r="L67" t="s" s="2">
         <v>566</v>
@@ -10372,11 +10349,9 @@
       <c r="M67" t="s" s="2">
         <v>567</v>
       </c>
-      <c r="N67" t="s" s="2">
+      <c r="N67" s="2"/>
+      <c r="O67" t="s" s="2">
         <v>568</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>569</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10401,13 +10376,13 @@
         <v>82</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>159</v>
+        <v>82</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>570</v>
+        <v>82</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>571</v>
+        <v>82</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>82</v>
@@ -10425,31 +10400,31 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>563</v>
+        <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>564</v>
+        <v>82</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>481</v>
+        <v>569</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10460,10 +10435,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10474,7 +10449,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10486,18 +10461,16 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>573</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="N68" s="2"/>
-      <c r="O68" t="s" s="2">
-        <v>576</v>
-      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
       </c>
@@ -10545,19 +10518,19 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>82</v>
@@ -10566,10 +10539,10 @@
         <v>82</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>82</v>
+        <v>542</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
@@ -10580,10 +10553,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10594,7 +10567,7 @@
         <v>80</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>82</v>
@@ -10603,18 +10576,20 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>106</v>
+        <v>575</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>580</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>577</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>578</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10663,19 +10638,19 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>82</v>
@@ -10684,10 +10659,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10698,10 +10673,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10721,19 +10696,19 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>583</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>584</v>
       </c>
-      <c r="M70" t="s" s="2">
+      <c r="N70" t="s" s="2">
         <v>585</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>586</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10783,7 +10758,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10795,7 +10770,7 @@
         <v>82</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>82</v>
@@ -10804,10 +10779,10 @@
         <v>82</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
@@ -10818,10 +10793,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10835,27 +10810,29 @@
         <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>588</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>589</v>
+      </c>
+      <c r="O71" t="s" s="2">
         <v>590</v>
       </c>
-      <c r="L71" t="s" s="2">
-        <v>591</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>592</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>593</v>
-      </c>
-      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10903,7 +10880,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10915,7 +10892,7 @@
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>104</v>
+        <v>591</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
@@ -10924,10 +10901,10 @@
         <v>82</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
@@ -10938,10 +10915,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10952,32 +10929,28 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>529</v>
+        <v>107</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>596</v>
+        <v>108</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>596</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>597</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>598</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -11025,19 +10998,19 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>595</v>
+        <v>110</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>599</v>
+        <v>82</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11046,10 +11019,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>600</v>
+        <v>82</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>601</v>
+        <v>111</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11060,21 +11033,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11086,15 +11059,17 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>116</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11143,19 +11118,19 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11167,7 +11142,7 @@
         <v>82</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AO73" t="s" s="2">
         <v>82</v>
@@ -11178,14 +11153,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>112</v>
+        <v>532</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11198,24 +11173,26 @@
         <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>114</v>
+        <v>533</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>115</v>
+        <v>534</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="O74" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="O74" t="s" s="2">
+        <v>535</v>
+      </c>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11263,7 +11240,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>120</v>
+        <v>536</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11275,7 +11252,7 @@
         <v>82</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>82</v>
@@ -11287,7 +11264,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11298,45 +11275,45 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>540</v>
+        <v>82</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>113</v>
+        <v>241</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>116</v>
+        <v>600</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>543</v>
+        <v>601</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11361,13 +11338,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>82</v>
+        <v>151</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>82</v>
+        <v>331</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>82</v>
+        <v>332</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11385,34 +11362,34 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>544</v>
+        <v>597</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>82</v>
+        <v>602</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>82</v>
+        <v>335</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>192</v>
+        <v>336</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>82</v>
+        <v>337</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>82</v>
@@ -11420,10 +11397,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11431,34 +11408,34 @@
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>240</v>
+        <v>604</v>
       </c>
       <c r="L76" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="M76" t="s" s="2">
         <v>606</v>
       </c>
-      <c r="M76" t="s" s="2">
+      <c r="N76" t="s" s="2">
         <v>607</v>
       </c>
-      <c r="N76" t="s" s="2">
-        <v>608</v>
-      </c>
       <c r="O76" t="s" s="2">
-        <v>609</v>
+        <v>403</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>82</v>
@@ -11483,13 +11460,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>150</v>
+        <v>233</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>330</v>
+        <v>608</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>331</v>
+        <v>609</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11507,45 +11484,45 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>82</v>
+        <v>610</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>334</v>
+        <v>406</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>335</v>
+        <v>407</v>
       </c>
       <c r="AO76" t="s" s="2">
-        <v>336</v>
+        <v>82</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>82</v>
+        <v>408</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11556,19 +11533,19 @@
         <v>80</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>612</v>
+        <v>241</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>613</v>
@@ -11580,7 +11557,7 @@
         <v>615</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>82</v>
@@ -11605,83 +11582,83 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="Y77" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI77" t="s" s="2">
         <v>616</v>
       </c>
-      <c r="Z77" t="s" s="2">
-        <v>617</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>611</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>618</v>
-      </c>
       <c r="AJ77" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>619</v>
+        <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>405</v>
+        <v>193</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP77" t="s" s="2">
-        <v>407</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>82</v>
+        <v>464</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>82</v>
@@ -11690,19 +11667,19 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>621</v>
+        <v>465</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>622</v>
+        <v>466</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>623</v>
+        <v>467</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11727,13 +11704,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11751,49 +11728,49 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
-        <v>624</v>
+        <v>82</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>82</v>
+        <v>471</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>82</v>
+        <v>474</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>472</v>
+        <v>82</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11812,19 +11789,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>240</v>
+        <v>82</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>473</v>
+        <v>619</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>474</v>
+        <v>620</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>475</v>
+        <v>524</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>476</v>
+        <v>525</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11849,13 +11826,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>150</v>
+        <v>82</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>477</v>
+        <v>82</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>478</v>
+        <v>82</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11873,7 +11850,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11885,151 +11862,29 @@
         <v>82</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>480</v>
+        <v>527</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>481</v>
+        <v>528</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="B80" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="E80" s="2"/>
-      <c r="F80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>627</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>628</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>532</v>
-      </c>
-      <c r="O80" t="s" s="2">
-        <v>533</v>
-      </c>
-      <c r="P80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Q80" s="2"/>
-      <c r="R80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>626</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="AN80" t="s" s="2">
-        <v>536</v>
-      </c>
-      <c r="AO80" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP80" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP80">
+  <autoFilter ref="A1:AP79">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12039,7 +11894,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI79">
+  <conditionalFormatting sqref="A2:AI78">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
+++ b/docs/StructureDefinition-VA.MHV.bodyWeight.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$92</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3562" uniqueCount="653">
   <si>
     <t>Property</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-17</t>
+    <t>2023-12-07</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,7 +88,7 @@
   </si>
   <si>
     <t>A profile on the Observation that declares how MHV will Create in PGHD for body weight measurements.
-Note this is compliant with FHIR core vital-signs.
+Note this is compliant with FHIR core vital-signs and bodyweight.
 - must be marked with MHV app tag
 - must have vital-signs category
 - must have LOINC#29463-7 code
@@ -129,7 +129,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/vitalsigns</t>
+    <t>http://hl7.org/fhir/StructureDefinition/bodyweight</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -284,10 +284,10 @@
 </t>
   </si>
   <si>
-    <t>FHIR Vital Signs Profile</t>
-  </si>
-  <si>
-    <t>The FHIR Vitals Signs profile sets minimum expectations for the Observation Resource to record, search and fetch the vital signs associated with a patient.</t>
+    <t>FHIR Body Weight Profile</t>
+  </si>
+  <si>
+    <t>This profile defines  how to represent body weight observations in FHIR using a standard LOINC code and UCUM units of measure.</t>
   </si>
   <si>
     <t>Used for simple observations such as device measurements, laboratory atomic results, vital signs, height, weight, smoking status, comments, etc.  Other resources are used to provide context for observations such as laboratory reports, etc.</t>
@@ -1037,31 +1037,22 @@
     <t>Observation.code</t>
   </si>
   <si>
-    <t xml:space="preserve">Name
-</t>
-  </si>
-  <si>
-    <t>Coded Responses from C-CDA Vital Sign Results</t>
-  </si>
-  <si>
-    <t>Coded Responses from C-CDA Vital Sign Results.</t>
-  </si>
-  <si>
-    <t>*All* code-value and, if present, component.code-component.value pairs need to be taken into account to correctly understand the meaning of the observation.</t>
+    <t>Name
+Test</t>
+  </si>
+  <si>
+    <t>Body Weight</t>
+  </si>
+  <si>
+    <t>Body Weight.</t>
+  </si>
+  <si>
+    <t>additional codes that translate or map to this code are allowed.  For example a more granular LOINC code or code that is used locally in a system.</t>
   </si>
   <si>
     <t>5. SHALL contain exactly one [1..1] code, where the @code SHOULD be selected from ValueSet HITSP Vital Sign Result Type 2.16.840.1.113883.3.88.12.80.62 DYNAMIC (CONF:7301).</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="29463-7"/&gt;
-    &lt;display value="Body weight"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>This identifies the vital sign result type.</t>
   </si>
   <si>
@@ -1084,6 +1075,76 @@
   </si>
   <si>
     <t>116680003 |Is a|</t>
+  </si>
+  <si>
+    <t>Observation.code.id</t>
+  </si>
+  <si>
+    <t>Observation.code.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding</t>
+  </si>
+  <si>
+    <t>value:code}
+value:system}</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightCode</t>
+  </si>
+  <si>
+    <t>BodyWeightCode</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightCode.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.id</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightCode.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightCode.system</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.system</t>
+  </si>
+  <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightCode.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.version</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightCode.code</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.code</t>
+  </si>
+  <si>
+    <t>29463-7</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightCode.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.display</t>
+  </si>
+  <si>
+    <t>Observation.code.coding:BodyWeightCode.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Observation.code.text</t>
   </si>
   <si>
     <t>Observation.subject</t>
@@ -1308,10 +1369,25 @@
     <t>363714003 |Interprets|</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity</t>
+  </si>
+  <si>
+    <t>valueQuantity</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.id</t>
+  </si>
+  <si>
     <t>Observation.value[x].id</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.extension</t>
+  </si>
+  <si>
     <t>Observation.value[x].extension</t>
+  </si>
+  <si>
+    <t>Observation.value[x]:valueQuantity.value</t>
   </si>
   <si>
     <t>Observation.value[x].value</t>
@@ -1356,6 +1432,9 @@
     <t>PQ.value, CO.value, MO.value, IVL.high or IVL.low depending on the value</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.comparator</t>
+  </si>
+  <si>
     <t>Observation.value[x].comparator</t>
   </si>
   <si>
@@ -1386,6 +1465,9 @@
     <t>IVL properties</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.unit</t>
+  </si>
+  <si>
     <t>Observation.value[x].unit</t>
   </si>
   <si>
@@ -1398,9 +1480,6 @@
     <t>There are many representations for units of measure and in many contexts, particular representations are fixed and required. I.e. mcg for micrograms.</t>
   </si>
   <si>
-    <t>https://johnmoehrke.github.io/MHV-PGHD/ValueSet/mhv-body-weights</t>
-  </si>
-  <si>
     <t>Quantity.unit</t>
   </si>
   <si>
@@ -1410,6 +1489,9 @@
     <t>PQ.unit</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.system</t>
+  </si>
+  <si>
     <t>Observation.value[x].system</t>
   </si>
   <si>
@@ -1420,6 +1502,9 @@
   </si>
   <si>
     <t>Need to know the system that defines the coded form of the unit.</t>
+  </si>
+  <si>
+    <t>http://unitsofmeasure.org</t>
   </si>
   <si>
     <t>Quantity.system</t>
@@ -1432,19 +1517,25 @@
     <t>CO.codeSystem, PQ.translation.codeSystem</t>
   </si>
   <si>
+    <t>Observation.value[x]:valueQuantity.code</t>
+  </si>
+  <si>
     <t>Observation.value[x].code</t>
   </si>
   <si>
-    <t>Coded form of the unit</t>
-  </si>
-  <si>
-    <t>A computer processable form of the unit in some unit representation system.</t>
+    <t>Coded responses from the common UCUM units for vital signs value set.</t>
   </si>
   <si>
     <t>The preferred system is UCUM, but SNOMED CT can also be used (for customary units) or ISO 4217 for currency.  The context of use may additionally require a code from a particular system.</t>
   </si>
   <si>
     <t>Need a computable form of the unit that is fixed across all forms. UCUM provides this for quantities, but SNOMED CT provides many units of interest.</t>
+  </si>
+  <si>
+    <t>Common UCUM units for Body Weight.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/ucum-bodyweight|4.0.1</t>
   </si>
   <si>
     <t>Quantity.code</t>
@@ -2309,7 +2400,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP79"/>
+  <dimension ref="A1:AP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2318,7 +2409,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="51.59375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="43.60546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="17.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
@@ -2343,7 +2434,7 @@
     <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="95.77734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="66.07421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="51.34375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.92578125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -5017,7 +5108,7 @@
         <v>93</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>94</v>
@@ -6619,7 +6710,7 @@
         <v>82</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>330</v>
+        <v>82</v>
       </c>
       <c r="T36" t="s" s="2">
         <v>82</v>
@@ -6637,10 +6728,10 @@
         <v>151</v>
       </c>
       <c r="Y36" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>331</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>332</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6673,30 +6764,30 @@
         <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AL36" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AM36" t="s" s="2">
         <v>334</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AO36" t="s" s="2">
+      <c r="AP36" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6704,35 +6795,31 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>340</v>
+        <v>107</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>341</v>
+        <v>108</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>82</v>
       </c>
@@ -6780,7 +6867,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>339</v>
+        <v>110</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6792,22 +6879,22 @@
         <v>82</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>345</v>
+        <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>346</v>
+        <v>82</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>347</v>
+        <v>111</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
         <v>82</v>
@@ -6815,21 +6902,21 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>82</v>
@@ -6838,19 +6925,19 @@
         <v>82</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>350</v>
+        <v>114</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>351</v>
+        <v>115</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>352</v>
+        <v>116</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>353</v>
+        <v>117</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6888,19 +6975,19 @@
         <v>82</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>349</v>
+        <v>121</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6912,7 +6999,7 @@
         <v>82</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>82</v>
@@ -6921,13 +7008,13 @@
         <v>82</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>354</v>
+        <v>111</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>348</v>
+        <v>82</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>82</v>
@@ -6935,21 +7022,21 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>356</v>
+        <v>82</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>82</v>
@@ -6961,19 +7048,19 @@
         <v>94</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>357</v>
+        <v>147</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>358</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>359</v>
+        <v>260</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>360</v>
+        <v>261</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>361</v>
+        <v>262</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -7010,25 +7097,23 @@
         <v>82</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC39" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="AC39" s="2"/>
       <c r="AD39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>82</v>
@@ -7037,19 +7122,19 @@
         <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>362</v>
+        <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>363</v>
+        <v>264</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>364</v>
+        <v>265</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>365</v>
+        <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>82</v>
@@ -7057,14 +7142,16 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>342</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C40" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>343</v>
+      </c>
       <c r="D40" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7074,7 +7161,7 @@
         <v>93</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>82</v>
@@ -7083,19 +7170,19 @@
         <v>94</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>368</v>
+        <v>147</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>369</v>
+        <v>259</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>370</v>
+        <v>260</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>371</v>
+        <v>261</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>372</v>
+        <v>262</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -7132,44 +7219,46 @@
         <v>82</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>374</v>
+        <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>263</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>376</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>378</v>
+        <v>264</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>379</v>
+        <v>265</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>82</v>
@@ -7177,48 +7266,42 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>381</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>367</v>
+        <v>82</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>368</v>
+        <v>107</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>369</v>
+        <v>108</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>372</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7266,7 +7349,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>366</v>
+        <v>110</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7275,25 +7358,25 @@
         <v>93</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>375</v>
+        <v>82</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>377</v>
+        <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>378</v>
+        <v>82</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>379</v>
+        <v>111</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>380</v>
+        <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
         <v>82</v>
@@ -7301,21 +7384,21 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>383</v>
+        <v>346</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>383</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>82</v>
@@ -7324,19 +7407,19 @@
         <v>82</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>115</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
+        <v>116</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>386</v>
+        <v>117</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7374,31 +7457,31 @@
         <v>82</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>383</v>
+        <v>121</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>82</v>
@@ -7407,13 +7490,13 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>387</v>
+        <v>82</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>388</v>
+        <v>111</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>389</v>
+        <v>82</v>
       </c>
       <c r="AP42" t="s" s="2">
         <v>82</v>
@@ -7421,10 +7504,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>390</v>
+        <v>348</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>390</v>
+        <v>349</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7432,10 +7515,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>82</v>
@@ -7447,24 +7530,26 @@
         <v>94</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>391</v>
+        <v>135</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>392</v>
+        <v>272</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O43" t="s" s="2">
-        <v>394</v>
+        <v>275</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>82</v>
+        <v>350</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>82</v>
@@ -7506,13 +7591,13 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>390</v>
+        <v>277</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>82</v>
@@ -7521,19 +7606,19 @@
         <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>395</v>
+        <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>396</v>
+        <v>278</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>397</v>
+        <v>279</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>398</v>
+        <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
         <v>82</v>
@@ -7541,10 +7626,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>399</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>399</v>
+        <v>352</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7558,7 +7643,7 @@
         <v>93</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>82</v>
@@ -7567,20 +7652,18 @@
         <v>94</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>400</v>
+        <v>107</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>401</v>
+        <v>282</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>82</v>
       </c>
@@ -7628,7 +7711,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>399</v>
+        <v>285</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7637,7 +7720,7 @@
         <v>93</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>404</v>
+        <v>82</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>105</v>
@@ -7646,27 +7729,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>405</v>
+        <v>82</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>406</v>
+        <v>286</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>409</v>
+        <v>353</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>409</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7674,7 +7757,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>93</v>
@@ -7686,25 +7769,27 @@
         <v>82</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>107</v>
+        <v>170</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>108</v>
+        <v>290</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>109</v>
+        <v>291</v>
       </c>
       <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>82</v>
+        <v>355</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>82</v>
@@ -7746,7 +7831,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>110</v>
+        <v>294</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7758,7 +7843,7 @@
         <v>82</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7767,10 +7852,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>82</v>
+        <v>295</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>111</v>
+        <v>296</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7781,21 +7866,21 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>410</v>
+        <v>356</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>410</v>
+        <v>357</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>82</v>
@@ -7804,21 +7889,21 @@
         <v>82</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>115</v>
+        <v>299</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O46" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="N46" s="2"/>
+      <c r="O46" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P46" t="s" s="2">
         <v>82</v>
       </c>
@@ -7854,31 +7939,31 @@
         <v>82</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>121</v>
+        <v>302</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>82</v>
@@ -7887,10 +7972,10 @@
         <v>82</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>82</v>
+        <v>303</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>111</v>
+        <v>304</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7901,10 +7986,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>411</v>
+        <v>359</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7927,19 +8012,19 @@
         <v>94</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>412</v>
+        <v>307</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>413</v>
+        <v>308</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>414</v>
+        <v>309</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>415</v>
+        <v>310</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>416</v>
+        <v>311</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>82</v>
@@ -7955,10 +8040,10 @@
         <v>82</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>417</v>
+        <v>82</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>418</v>
+        <v>82</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>82</v>
@@ -7988,7 +8073,7 @@
         <v>82</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>419</v>
+        <v>312</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -8009,10 +8094,10 @@
         <v>82</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>420</v>
+        <v>313</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>421</v>
+        <v>314</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -8023,10 +8108,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>422</v>
+        <v>360</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8043,30 +8128,30 @@
         <v>82</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>423</v>
+        <v>317</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>318</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>319</v>
+      </c>
       <c r="O48" t="s" s="2">
-        <v>425</v>
+        <v>320</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q48" t="s" s="2">
-        <v>426</v>
-      </c>
+      <c r="Q48" s="2"/>
       <c r="R48" t="s" s="2">
         <v>82</v>
       </c>
@@ -8086,13 +8171,13 @@
         <v>82</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>427</v>
+        <v>82</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>428</v>
+        <v>82</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>82</v>
@@ -8110,7 +8195,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>429</v>
+        <v>321</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -8131,10 +8216,10 @@
         <v>82</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>430</v>
+        <v>322</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>431</v>
+        <v>323</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -8145,10 +8230,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>432</v>
+        <v>361</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8156,13 +8241,13 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>82</v>
@@ -8171,17 +8256,19 @@
         <v>94</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>433</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>434</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>364</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>365</v>
+      </c>
       <c r="O49" t="s" s="2">
-        <v>435</v>
+        <v>366</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>82</v>
@@ -8206,11 +8293,13 @@
         <v>82</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="Y49" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>82</v>
+      </c>
       <c r="Z49" t="s" s="2">
-        <v>436</v>
+        <v>82</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>82</v>
@@ -8228,7 +8317,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>437</v>
+        <v>361</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8243,19 +8332,19 @@
         <v>105</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>82</v>
+        <v>367</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>438</v>
+        <v>368</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>439</v>
+        <v>369</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>82</v>
@@ -8263,10 +8352,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>440</v>
+        <v>371</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8277,7 +8366,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>82</v>
@@ -8289,18 +8378,18 @@
         <v>94</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>135</v>
+        <v>372</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>441</v>
+        <v>373</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>443</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>82</v>
       </c>
@@ -8348,16 +8437,16 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>444</v>
+        <v>371</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>445</v>
+        <v>82</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>105</v>
@@ -8369,13 +8458,13 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>438</v>
+        <v>334</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>446</v>
+        <v>376</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>82</v>
+        <v>370</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>82</v>
@@ -8383,21 +8472,21 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>447</v>
+        <v>377</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>82</v>
+        <v>378</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>82</v>
@@ -8409,19 +8498,19 @@
         <v>94</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>170</v>
+        <v>379</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>448</v>
+        <v>380</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>449</v>
+        <v>381</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>450</v>
+        <v>382</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>451</v>
+        <v>383</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8470,7 +8559,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>452</v>
+        <v>377</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8485,19 +8574,19 @@
         <v>105</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>82</v>
+        <v>384</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>438</v>
+        <v>385</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>453</v>
+        <v>386</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>82</v>
+        <v>387</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>82</v>
@@ -8505,21 +8594,21 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>82</v>
+        <v>389</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>94</v>
@@ -8528,22 +8617,22 @@
         <v>82</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>391</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
+        <v>392</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>457</v>
+        <v>393</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>458</v>
+        <v>394</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8568,31 +8657,29 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>454</v>
+        <v>388</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8601,25 +8688,25 @@
         <v>93</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>461</v>
+        <v>397</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>105</v>
+        <v>398</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>193</v>
+        <v>400</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>462</v>
+        <v>401</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>82</v>
@@ -8627,45 +8714,47 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>463</v>
+        <v>403</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>388</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>404</v>
+      </c>
       <c r="D53" t="s" s="2">
-        <v>464</v>
+        <v>389</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>241</v>
+        <v>390</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>467</v>
+        <v>393</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8690,13 +8779,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>469</v>
+        <v>82</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>470</v>
+        <v>82</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8714,45 +8803,45 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>463</v>
+        <v>388</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>82</v>
+        <v>397</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>398</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>82</v>
+        <v>399</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>471</v>
+        <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>472</v>
+        <v>400</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>473</v>
+        <v>401</v>
       </c>
       <c r="AO53" t="s" s="2">
-        <v>82</v>
+        <v>402</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8763,7 +8852,7 @@
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>82</v>
@@ -8772,23 +8861,21 @@
         <v>82</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>476</v>
+        <v>129</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>477</v>
+        <v>406</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>478</v>
+        <v>407</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>479</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>480</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>82</v>
       </c>
@@ -8836,13 +8923,13 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>475</v>
+        <v>405</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>82</v>
@@ -8857,13 +8944,13 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>481</v>
+        <v>409</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>482</v>
+        <v>410</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>82</v>
+        <v>411</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>82</v>
@@ -8871,10 +8958,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8894,21 +8981,21 @@
         <v>82</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>241</v>
+        <v>413</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>484</v>
+        <v>414</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>415</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>416</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>82</v>
       </c>
@@ -8932,13 +9019,13 @@
         <v>82</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>487</v>
+        <v>82</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>488</v>
+        <v>82</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>82</v>
@@ -8956,13 +9043,13 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>483</v>
+        <v>412</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>82</v>
@@ -8971,30 +9058,30 @@
         <v>105</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>82</v>
+        <v>417</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>489</v>
+        <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>490</v>
+        <v>418</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>491</v>
+        <v>419</v>
       </c>
       <c r="AO55" t="s" s="2">
-        <v>82</v>
+        <v>420</v>
       </c>
       <c r="AP55" t="s" s="2">
-        <v>492</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9005,31 +9092,31 @@
         <v>80</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>241</v>
+        <v>422</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>494</v>
+        <v>423</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>495</v>
+        <v>423</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>496</v>
+        <v>424</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>497</v>
+        <v>425</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>82</v>
@@ -9054,31 +9141,29 @@
         <v>82</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>160</v>
+        <v>82</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>498</v>
+        <v>82</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>499</v>
+        <v>82</v>
       </c>
       <c r="AA56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>82</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="AC56" s="2"/>
       <c r="AD56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>82</v>
+        <v>396</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>493</v>
+        <v>421</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -9087,7 +9172,7 @@
         <v>93</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>105</v>
@@ -9096,29 +9181,31 @@
         <v>82</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>82</v>
+        <v>427</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>500</v>
+        <v>428</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>501</v>
+        <v>429</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP56" t="s" s="2">
-        <v>82</v>
+        <v>430</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>502</v>
+        <v>431</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>432</v>
+      </c>
       <c r="D57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9127,30 +9214,32 @@
         <v>80</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>503</v>
+        <v>422</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>504</v>
+        <v>423</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>505</v>
+        <v>423</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>424</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>425</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
       </c>
@@ -9198,7 +9287,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>502</v>
+        <v>421</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9207,7 +9296,7 @@
         <v>93</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>82</v>
+        <v>426</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>105</v>
@@ -9216,27 +9305,27 @@
         <v>82</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>507</v>
+        <v>427</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>508</v>
+        <v>428</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>509</v>
+        <v>429</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP57" t="s" s="2">
-        <v>510</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>511</v>
+        <v>434</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9247,7 +9336,7 @@
         <v>80</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>82</v>
@@ -9259,17 +9348,15 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>512</v>
+        <v>107</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>513</v>
+        <v>108</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>515</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9318,7 +9405,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>511</v>
+        <v>110</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9330,44 +9417,44 @@
         <v>82</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>516</v>
+        <v>82</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>517</v>
+        <v>82</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>518</v>
+        <v>111</v>
       </c>
       <c r="AO58" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP58" t="s" s="2">
-        <v>519</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>520</v>
+        <v>435</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>520</v>
+        <v>436</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>82</v>
@@ -9379,20 +9466,18 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>521</v>
+        <v>114</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>522</v>
+        <v>115</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>523</v>
+        <v>116</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="O59" t="s" s="2">
-        <v>525</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>82</v>
       </c>
@@ -9428,19 +9513,19 @@
         <v>82</v>
       </c>
       <c r="AB59" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="AC59" t="s" s="2">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="AD59" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>520</v>
+        <v>121</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9452,7 +9537,7 @@
         <v>82</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>526</v>
+        <v>122</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>82</v>
@@ -9461,10 +9546,10 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>527</v>
+        <v>82</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>528</v>
+        <v>111</v>
       </c>
       <c r="AO59" t="s" s="2">
         <v>82</v>
@@ -9475,10 +9560,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>529</v>
+        <v>437</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>529</v>
+        <v>438</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9486,31 +9571,35 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>107</v>
+        <v>439</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>108</v>
+        <v>440</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>441</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>443</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>82</v>
       </c>
@@ -9525,10 +9614,10 @@
         <v>82</v>
       </c>
       <c r="U60" t="s" s="2">
-        <v>82</v>
+        <v>444</v>
       </c>
       <c r="V60" t="s" s="2">
-        <v>82</v>
+        <v>445</v>
       </c>
       <c r="W60" t="s" s="2">
         <v>82</v>
@@ -9558,7 +9647,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>110</v>
+        <v>446</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9570,7 +9659,7 @@
         <v>82</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>82</v>
@@ -9579,10 +9668,10 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>82</v>
+        <v>447</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>111</v>
+        <v>448</v>
       </c>
       <c r="AO60" t="s" s="2">
         <v>82</v>
@@ -9593,48 +9682,50 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>530</v>
+        <v>449</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>530</v>
+        <v>450</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>114</v>
+        <v>170</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>115</v>
+        <v>451</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="O61" s="2"/>
+        <v>452</v>
+      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>453</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="Q61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>454</v>
+      </c>
       <c r="R61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9654,13 +9745,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>82</v>
+        <v>455</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>82</v>
+        <v>456</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9678,19 +9769,19 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>121</v>
+        <v>457</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>82</v>
@@ -9699,10 +9790,10 @@
         <v>82</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>82</v>
+        <v>458</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>111</v>
+        <v>459</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>82</v>
@@ -9713,45 +9804,43 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>531</v>
+        <v>460</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>531</v>
+        <v>461</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>532</v>
+        <v>82</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J62" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>533</v>
+        <v>462</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>463</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
-        <v>535</v>
+        <v>464</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9800,19 +9889,19 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>536</v>
+        <v>465</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>82</v>
@@ -9821,10 +9910,10 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>82</v>
+        <v>466</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>193</v>
+        <v>467</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
@@ -9835,10 +9924,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>537</v>
+        <v>468</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>537</v>
+        <v>469</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9846,37 +9935,39 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>538</v>
+        <v>135</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>539</v>
+        <v>470</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>540</v>
+        <v>471</v>
       </c>
       <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>472</v>
+      </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" t="s" s="2">
-        <v>82</v>
+        <v>473</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>82</v>
@@ -9918,7 +10009,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>537</v>
+        <v>474</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9927,7 +10018,7 @@
         <v>93</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>541</v>
+        <v>475</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9939,10 +10030,10 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>543</v>
+        <v>476</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9953,10 +10044,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>544</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>544</v>
+        <v>478</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9964,31 +10055,35 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>93</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>538</v>
+        <v>170</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>545</v>
+        <v>479</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>546</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
       </c>
@@ -10012,13 +10107,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>82</v>
+        <v>482</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>82</v>
+        <v>483</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -10036,7 +10131,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>544</v>
+        <v>484</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10045,7 +10140,7 @@
         <v>93</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>541</v>
+        <v>82</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>105</v>
@@ -10057,10 +10152,10 @@
         <v>82</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>547</v>
+        <v>485</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
@@ -10071,10 +10166,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10085,10 +10180,10 @@
         <v>80</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>82</v>
@@ -10100,16 +10195,16 @@
         <v>241</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>549</v>
+        <v>487</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>550</v>
+        <v>488</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>551</v>
+        <v>489</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>552</v>
+        <v>490</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -10134,13 +10229,13 @@
         <v>82</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>553</v>
+        <v>491</v>
       </c>
       <c r="Z65" t="s" s="2">
-        <v>554</v>
+        <v>492</v>
       </c>
       <c r="AA65" t="s" s="2">
         <v>82</v>
@@ -10158,7 +10253,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>548</v>
+        <v>486</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10167,7 +10262,7 @@
         <v>93</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>82</v>
+        <v>493</v>
       </c>
       <c r="AJ65" t="s" s="2">
         <v>105</v>
@@ -10176,13 +10271,13 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>555</v>
+        <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>556</v>
+        <v>193</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>
@@ -10193,21 +10288,21 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>82</v>
+        <v>496</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>82</v>
@@ -10222,16 +10317,16 @@
         <v>241</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>558</v>
+        <v>497</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>559</v>
+        <v>498</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>560</v>
+        <v>499</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>561</v>
+        <v>500</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10256,13 +10351,13 @@
         <v>82</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>562</v>
+        <v>501</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>563</v>
+        <v>502</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>82</v>
@@ -10280,7 +10375,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>557</v>
+        <v>495</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10298,27 +10393,27 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>555</v>
+        <v>503</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>556</v>
+        <v>504</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="AO66" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP66" t="s" s="2">
-        <v>82</v>
+        <v>506</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10341,17 +10436,19 @@
         <v>82</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>565</v>
+        <v>508</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>566</v>
+        <v>509</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>510</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>511</v>
+      </c>
       <c r="O67" t="s" s="2">
-        <v>568</v>
+        <v>512</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10400,13 +10497,13 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>564</v>
+        <v>507</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>82</v>
@@ -10421,10 +10518,10 @@
         <v>82</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>82</v>
+        <v>513</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>569</v>
+        <v>514</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>82</v>
@@ -10435,10 +10532,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10449,7 +10546,7 @@
         <v>80</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>82</v>
@@ -10461,15 +10558,17 @@
         <v>82</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>107</v>
+        <v>241</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>571</v>
+        <v>516</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>572</v>
-      </c>
-      <c r="N68" s="2"/>
+        <v>517</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>518</v>
+      </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10494,13 +10593,13 @@
         <v>82</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>82</v>
+        <v>519</v>
       </c>
       <c r="Z68" t="s" s="2">
-        <v>82</v>
+        <v>520</v>
       </c>
       <c r="AA68" t="s" s="2">
         <v>82</v>
@@ -10518,7 +10617,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>570</v>
+        <v>515</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10536,27 +10635,27 @@
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>82</v>
+        <v>521</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>542</v>
+        <v>522</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>573</v>
+        <v>523</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP68" t="s" s="2">
-        <v>82</v>
+        <v>524</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10576,21 +10675,23 @@
         <v>82</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>575</v>
+        <v>241</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>576</v>
+        <v>526</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>577</v>
+        <v>527</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>578</v>
-      </c>
-      <c r="O69" s="2"/>
+        <v>528</v>
+      </c>
+      <c r="O69" t="s" s="2">
+        <v>529</v>
+      </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
       </c>
@@ -10614,13 +10715,13 @@
         <v>82</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>82</v>
+        <v>530</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>82</v>
+        <v>531</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>82</v>
@@ -10638,13 +10739,13 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>574</v>
+        <v>525</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>82</v>
@@ -10659,10 +10760,10 @@
         <v>82</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>579</v>
+        <v>532</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>580</v>
+        <v>533</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>82</v>
@@ -10673,10 +10774,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10696,19 +10797,19 @@
         <v>82</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>582</v>
+        <v>535</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>583</v>
+        <v>536</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>584</v>
+        <v>537</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>585</v>
+        <v>538</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10758,13 +10859,13 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>581</v>
+        <v>534</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>82</v>
@@ -10776,27 +10877,27 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>82</v>
+        <v>539</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>586</v>
+        <v>541</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP70" t="s" s="2">
-        <v>82</v>
+        <v>542</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10810,29 +10911,27 @@
         <v>80</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>588</v>
+        <v>545</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>588</v>
+        <v>546</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>589</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>590</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>82</v>
       </c>
@@ -10880,45 +10979,45 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>587</v>
+        <v>543</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>591</v>
+        <v>105</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>82</v>
+        <v>548</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>592</v>
+        <v>549</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>593</v>
+        <v>550</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP71" t="s" s="2">
-        <v>82</v>
+        <v>551</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10929,7 +11028,7 @@
         <v>80</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>82</v>
@@ -10941,16 +11040,20 @@
         <v>82</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>107</v>
+        <v>553</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>108</v>
+        <v>554</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>555</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>557</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>82</v>
       </c>
@@ -10998,19 +11101,19 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>110</v>
+        <v>552</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>82</v>
+        <v>558</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>82</v>
@@ -11019,10 +11122,10 @@
         <v>82</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>82</v>
+        <v>559</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>111</v>
+        <v>560</v>
       </c>
       <c r="AO72" t="s" s="2">
         <v>82</v>
@@ -11033,21 +11136,21 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>82</v>
@@ -11059,17 +11162,15 @@
         <v>82</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>117</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>82</v>
@@ -11118,19 +11219,19 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>82</v>
@@ -11153,14 +11254,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>596</v>
+        <v>562</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>532</v>
+        <v>113</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -11173,26 +11274,24 @@
         <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K74" t="s" s="2">
         <v>114</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>533</v>
+        <v>115</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>534</v>
+        <v>116</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="O74" t="s" s="2">
-        <v>535</v>
-      </c>
+      <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>82</v>
       </c>
@@ -11240,7 +11339,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>536</v>
+        <v>121</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11264,7 +11363,7 @@
         <v>82</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>82</v>
@@ -11275,45 +11374,45 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>82</v>
+        <v>564</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="H75" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I75" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>94</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>241</v>
+        <v>114</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>598</v>
+        <v>565</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>599</v>
+        <v>566</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>600</v>
+        <v>117</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>82</v>
@@ -11338,13 +11437,13 @@
         <v>82</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>331</v>
+        <v>82</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>332</v>
+        <v>82</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>82</v>
@@ -11362,34 +11461,34 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>602</v>
+        <v>82</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>335</v>
+        <v>82</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>336</v>
+        <v>193</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>337</v>
+        <v>82</v>
       </c>
       <c r="AP75" t="s" s="2">
         <v>82</v>
@@ -11397,10 +11496,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11414,29 +11513,25 @@
         <v>93</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>604</v>
+        <v>570</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>606</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>607</v>
-      </c>
-      <c r="O76" t="s" s="2">
-        <v>403</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>82</v>
       </c>
@@ -11460,13 +11555,13 @@
         <v>82</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>233</v>
+        <v>82</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>608</v>
+        <v>82</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>609</v>
+        <v>82</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>82</v>
@@ -11484,7 +11579,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11493,7 +11588,7 @@
         <v>93</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>610</v>
+        <v>573</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>105</v>
@@ -11502,27 +11597,27 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>611</v>
+        <v>82</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>406</v>
+        <v>574</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>407</v>
+        <v>575</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>408</v>
+        <v>82</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11536,7 +11631,7 @@
         <v>93</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>82</v>
@@ -11545,20 +11640,16 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>241</v>
+        <v>570</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>613</v>
+        <v>577</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>614</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>615</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>458</v>
-      </c>
+        <v>578</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>82</v>
       </c>
@@ -11582,13 +11673,13 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>151</v>
+        <v>82</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>459</v>
+        <v>82</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>460</v>
+        <v>82</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>82</v>
@@ -11606,7 +11697,7 @@
         <v>82</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>612</v>
+        <v>576</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11615,7 +11706,7 @@
         <v>93</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>616</v>
+        <v>573</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>105</v>
@@ -11627,10 +11718,10 @@
         <v>82</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>193</v>
+        <v>574</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>462</v>
+        <v>579</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>82</v>
@@ -11641,21 +11732,21 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>464</v>
+        <v>82</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>82</v>
@@ -11670,16 +11761,16 @@
         <v>241</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
+        <v>581</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>466</v>
+        <v>582</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>467</v>
+        <v>583</v>
       </c>
       <c r="O78" t="s" s="2">
-        <v>468</v>
+        <v>584</v>
       </c>
       <c r="P78" t="s" s="2">
         <v>82</v>
@@ -11704,13 +11795,13 @@
         <v>82</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>469</v>
+        <v>585</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>470</v>
+        <v>586</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>82</v>
@@ -11728,13 +11819,13 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>617</v>
+        <v>580</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>82</v>
@@ -11746,27 +11837,27 @@
         <v>82</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>471</v>
+        <v>587</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>472</v>
+        <v>588</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP78" t="s" s="2">
-        <v>474</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -11789,19 +11880,19 @@
         <v>82</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>82</v>
+        <v>241</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>619</v>
+        <v>590</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>620</v>
+        <v>591</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>524</v>
+        <v>592</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>525</v>
+        <v>593</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>82</v>
@@ -11826,13 +11917,13 @@
         <v>82</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>82</v>
+        <v>594</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>82</v>
+        <v>595</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>82</v>
@@ -11850,7 +11941,7 @@
         <v>82</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>618</v>
+        <v>589</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -11868,23 +11959,1593 @@
         <v>82</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>82</v>
+        <v>587</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>527</v>
+        <v>588</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>528</v>
+        <v>505</v>
       </c>
       <c r="AO79" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP79" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>597</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="M80" t="s" s="2">
+        <v>599</v>
+      </c>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>600</v>
+      </c>
+      <c r="P80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q80" s="2"/>
+      <c r="R80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>596</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN80" t="s" s="2">
+        <v>601</v>
+      </c>
+      <c r="AO80" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP80" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" hidden="true">
+      <c r="A81" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>603</v>
+      </c>
+      <c r="M81" t="s" s="2">
+        <v>604</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q81" s="2"/>
+      <c r="R81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AN81" t="s" s="2">
+        <v>605</v>
+      </c>
+      <c r="AO81" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP81" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>607</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>608</v>
+      </c>
+      <c r="M82" t="s" s="2">
+        <v>609</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>610</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q82" s="2"/>
+      <c r="R82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>606</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AN82" t="s" s="2">
+        <v>612</v>
+      </c>
+      <c r="AO82" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP82" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>614</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>615</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>616</v>
+      </c>
+      <c r="N83" t="s" s="2">
+        <v>617</v>
+      </c>
+      <c r="O83" s="2"/>
+      <c r="P83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q83" s="2"/>
+      <c r="R83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>613</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>611</v>
+      </c>
+      <c r="AN83" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="AO83" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP83" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>620</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>621</v>
+      </c>
+      <c r="O84" t="s" s="2">
+        <v>622</v>
+      </c>
+      <c r="P84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q84" s="2"/>
+      <c r="R84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>619</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>623</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="AN84" t="s" s="2">
+        <v>625</v>
+      </c>
+      <c r="AO84" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP84" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" hidden="true">
+      <c r="A85" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>626</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q85" s="2"/>
+      <c r="R85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN85" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO85" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP85" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="86" hidden="true">
+      <c r="A86" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O86" s="2"/>
+      <c r="P86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q86" s="2"/>
+      <c r="R86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN86" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AO86" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP86" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>628</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="P87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q87" s="2"/>
+      <c r="R87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AO87" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP87" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>631</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>632</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="P88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>629</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>634</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AO88" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AP88" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>636</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>638</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="O89" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="P89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>640</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>641</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>635</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>642</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AO89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP89" t="s" s="2">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>646</v>
+      </c>
+      <c r="N90" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="O90" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="P90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AO90" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP90" t="s" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="O91" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="P91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AO91" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP91" t="s" s="2">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>651</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="O92" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="P92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>650</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="AO92" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP92" t="s" s="2">
         <v>82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP79">
+  <autoFilter ref="A1:AP92">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11894,7 +13555,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI78">
+  <conditionalFormatting sqref="A2:AI91">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
